--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -710,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
@@ -728,10 +728,10 @@
         <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U2" t="n">
         <v>1.33</v>
@@ -851,16 +851,16 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="Q3" t="n">
         <v>2.63</v>
@@ -872,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U3" t="n">
         <v>1.57</v>
@@ -994,13 +994,13 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P4" t="n">
         <v>2.25</v>
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1143,13 +1143,13 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
         <v>2.5</v>
@@ -1164,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1230,10 +1230,10 @@
         <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AR5" t="n">
         <v>4.1</v>
@@ -1292,13 +1292,13 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P6" t="n">
         <v>2.25</v>
@@ -1313,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U6" t="n">
         <v>1.62</v>
@@ -1423,28 +1423,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1453,22 +1453,22 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
         <v>2.5</v>
@@ -1477,10 +1477,10 @@
         <v>1.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
@@ -1516,7 +1516,7 @@
         <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1743,16 +1743,16 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U9" t="n">
         <v>1.5</v>
@@ -2297,28 +2297,28 @@
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.57</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.6</v>
-      </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
         <v>2.12</v>
       </c>
       <c r="L13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -2327,10 +2327,10 @@
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S13" t="n">
         <v>3.55</v>
@@ -2339,10 +2339,10 @@
         <v>1.27</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="W13" t="n">
         <v>1.83</v>
@@ -2351,7 +2351,7 @@
         <v>1.87</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Z13" t="n">
         <v>13</v>
@@ -2360,7 +2360,7 @@
         <v>10.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
         <v>24</v>
@@ -2369,10 +2369,10 @@
         <v>37</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AG13" t="n">
         <v>16.5</v>
@@ -2384,19 +2384,19 @@
         <v>800</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AK13" t="n">
         <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM13" t="n">
         <v>30</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>37</v>
@@ -2438,22 +2438,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="H14" t="n">
         <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2474,13 +2474,13 @@
         <v>1.65</v>
       </c>
       <c r="S14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T14" t="n">
         <v>1.24</v>
       </c>
       <c r="U14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V14" t="n">
         <v>2.65</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="n">
         <v>16</v>
@@ -2507,7 +2507,7 @@
         <v>55</v>
       </c>
       <c r="AD14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE14" t="n">
         <v>6.9</v>
@@ -2534,7 +2534,7 @@
         <v>9.25</v>
       </c>
       <c r="AM14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
         <v>17</v>
@@ -3010,22 +3010,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="J18" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L18" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -3036,16 +3036,16 @@
         <v>3.15</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="T18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="U18" t="n">
         <v>1.38</v>
@@ -3054,61 +3054,61 @@
         <v>2.57</v>
       </c>
       <c r="W18" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="X18" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AA18" t="n">
         <v>8</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>10.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AG18" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
         <v>2.6</v>
@@ -3301,7 +3301,7 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -3337,7 +3337,7 @@
         <v>6.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA20" t="n">
         <v>9</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
@@ -3643,7 +3643,7 @@
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3788,7 +3788,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3806,10 +3806,10 @@
         <v>26</v>
       </c>
       <c r="O24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q24" t="n">
         <v>1.36</v>
@@ -3818,10 +3818,10 @@
         <v>3.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U24" t="n">
         <v>1.22</v>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="H25" t="n">
         <v>3.25</v>
@@ -3944,7 +3944,7 @@
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
@@ -4219,7 +4219,7 @@
         <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H29" t="n">
         <v>3.7</v>
@@ -4636,109 +4636,109 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="J30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S30" t="n">
         <v>3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N30" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.1</v>
       </c>
       <c r="T30" t="n">
         <v>1.33</v>
       </c>
       <c r="U30" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="V30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X30" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
         <v>10</v>
       </c>
       <c r="AB30" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD30" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AI30" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM30" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4777,88 +4777,88 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="J31" t="n">
         <v>2.3</v>
       </c>
       <c r="K31" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T31" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V31" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="W31" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="X31" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="Z31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA31" t="n">
         <v>9</v>
       </c>
-      <c r="AA31" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AB31" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
         <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AF31" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="n">
         <v>600</v>
@@ -4867,19 +4867,19 @@
         <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>17</v>
       </c>
       <c r="AM31" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AN31" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AO31" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -5059,31 +5059,31 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K33" t="n">
         <v>2.5</v>
       </c>
       <c r="L33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O33" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P33" t="n">
         <v>6</v>
@@ -5098,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U33" t="n">
         <v>1.25</v>
@@ -5119,7 +5119,7 @@
         <v>15</v>
       </c>
       <c r="AA33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB33" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -710,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
@@ -728,10 +728,10 @@
         <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
         <v>1.33</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -851,16 +851,16 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.63</v>
@@ -872,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U3" t="n">
         <v>1.57</v>
@@ -881,10 +881,10 @@
         <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y3" t="n">
         <v>5.5</v>
@@ -994,13 +994,13 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
         <v>2.25</v>
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1128,28 +1128,28 @@
         <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
         <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
         <v>2.5</v>
@@ -1164,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1185,7 +1185,7 @@
         <v>6.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" t="n">
         <v>12</v>
@@ -1197,7 +1197,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF5" t="n">
         <v>7</v>
@@ -1227,7 +1227,7 @@
         <v>51</v>
       </c>
       <c r="AO5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP5" t="n">
         <v>1.93</v>
@@ -1292,13 +1292,13 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
         <v>2.25</v>
@@ -1313,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U6" t="n">
         <v>1.62</v>
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>2.75</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1441,10 +1441,10 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1516,7 +1516,7 @@
         <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1586,10 +1586,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
@@ -1716,16 +1716,16 @@
         <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
         <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
         <v>3.6</v>
@@ -1734,7 +1734,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1755,19 +1755,19 @@
         <v>1.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z9" t="n">
         <v>11</v>
@@ -1785,22 +1785,22 @@
         <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>51</v>
       </c>
       <c r="AI9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -1812,10 +1812,10 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP9" t="n">
         <v>1.8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H11" t="n">
         <v>4.75</v>
@@ -2022,7 +2022,7 @@
         <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2031,10 +2031,10 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.98</v>
@@ -2061,7 +2061,7 @@
         <v>1.57</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z11" t="n">
         <v>6</v>
@@ -2070,7 +2070,7 @@
         <v>9</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
         <v>13</v>
@@ -2094,7 +2094,7 @@
         <v>101</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
@@ -2112,16 +2112,16 @@
         <v>67</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="12">
@@ -2579,16 +2579,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
         <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
@@ -2627,10 +2627,10 @@
         <v>3.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
@@ -2657,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>41</v>
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -2750,10 +2750,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
         <v>3.75</v>
@@ -2861,13 +2861,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J17" t="n">
         <v>4.5</v>
@@ -2951,16 +2951,16 @@
         <v>7</v>
       </c>
       <c r="AK17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL17" t="n">
         <v>8.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
         <v>29</v>
@@ -3013,7 +3013,7 @@
         <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
         <v>5.4</v>
@@ -3033,7 +3033,7 @@
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="n">
         <v>1.75</v>
@@ -3054,34 +3054,34 @@
         <v>2.57</v>
       </c>
       <c r="W18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X18" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA18" t="n">
         <v>8</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC18" t="n">
         <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>10.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AG18" t="n">
         <v>16.5</v>
@@ -3093,7 +3093,7 @@
         <v>600</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK18" t="n">
         <v>32</v>
@@ -3105,10 +3105,10 @@
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>3.3</v>
@@ -3420,12 +3420,24 @@
           <t>Perak</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H21" t="n">
+        <v>12</v>
+      </c>
+      <c r="I21" t="n">
+        <v>23</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>16</v>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -3438,23 +3450,51 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>450</v>
+      </c>
       <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>200</v>
+      </c>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
+      <c r="AO21" t="n">
+        <v>250</v>
+      </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
@@ -3492,13 +3532,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
@@ -3643,7 +3683,7 @@
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3788,7 +3828,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3923,7 +3963,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
         <v>3.25</v>
@@ -4064,7 +4104,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
@@ -4219,7 +4259,7 @@
         <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -4495,7 +4535,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H29" t="n">
         <v>3.7</v>
@@ -4513,10 +4553,10 @@
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
@@ -4525,16 +4565,16 @@
         <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U29" t="n">
         <v>1.44</v>
@@ -4636,13 +4676,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J30" t="n">
         <v>2.88</v>
@@ -4654,13 +4694,13 @@
         <v>3.25</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
         <v>11</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="n">
         <v>3.75</v>
@@ -4675,7 +4715,7 @@
         <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U30" t="n">
         <v>1.36</v>
@@ -4690,16 +4730,16 @@
         <v>2.1</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
         <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
         <v>19</v>
@@ -4723,7 +4763,7 @@
         <v>151</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
@@ -4735,7 +4775,7 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>29</v>
@@ -4795,13 +4835,13 @@
         <v>4.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
         <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
         <v>3.75</v>
@@ -4816,7 +4856,7 @@
         <v>3.25</v>
       </c>
       <c r="T31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U31" t="n">
         <v>1.4</v>
@@ -5077,13 +5117,13 @@
         <v>3.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
         <v>19</v>
       </c>
       <c r="O33" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P33" t="n">
         <v>6</v>
@@ -5098,7 +5138,7 @@
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U33" t="n">
         <v>1.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -698,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>1.8</v>
@@ -707,13 +707,13 @@
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
@@ -749,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
@@ -767,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG2" t="n">
         <v>21</v>
@@ -776,7 +776,7 @@
         <v>67</v>
       </c>
       <c r="AI2" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -851,10 +851,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -896,7 +896,7 @@
         <v>9.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>21</v>
@@ -921,7 +921,7 @@
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
@@ -1143,10 +1143,10 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1155,16 +1155,16 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1230,16 +1230,16 @@
         <v>67</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="6">
@@ -1385,7 +1385,7 @@
         <v>1.8</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AS6" t="n">
         <v>1.19</v>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>1.91</v>
@@ -1586,10 +1586,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
@@ -1655,7 +1655,7 @@
         <v>101</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
@@ -1737,16 +1737,16 @@
         <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
         <v>3.75</v>
@@ -1767,10 +1767,10 @@
         <v>1.83</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>10</v>
@@ -1797,7 +1797,7 @@
         <v>51</v>
       </c>
       <c r="AI9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.5</v>
@@ -2031,10 +2031,10 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
         <v>1.98</v>
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
         <v>2.12</v>
       </c>
       <c r="L13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2351,28 +2351,28 @@
         <v>1.87</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="n">
         <v>7.3</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AG13" t="n">
         <v>16.5</v>
@@ -2384,19 +2384,19 @@
         <v>800</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>37</v>
@@ -2861,13 +2861,13 @@
         </is>
       </c>
       <c r="G17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.7</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I17" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J17" t="n">
         <v>4.5</v>
@@ -2891,7 +2891,7 @@
         <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>1.8</v>
@@ -2945,22 +2945,22 @@
         <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ17" t="n">
         <v>7</v>
       </c>
       <c r="AK17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL17" t="n">
         <v>8.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
         <v>29</v>
@@ -3010,22 +3010,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="K18" t="n">
         <v>2.15</v>
       </c>
       <c r="L18" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -3033,19 +3033,19 @@
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S18" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="T18" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U18" t="n">
         <v>1.38</v>
@@ -3054,25 +3054,25 @@
         <v>2.57</v>
       </c>
       <c r="W18" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AA18" t="n">
         <v>8</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
         <v>26</v>
@@ -3081,34 +3081,34 @@
         <v>10.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="n">
         <v>600</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3150,86 +3150,86 @@
         <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J19" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K19" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R19" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="T19" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X19" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA19" t="n">
         <v>9.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG19" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13</v>
-      </c>
       <c r="AH19" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AK19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL19" t="n">
         <v>9.75</v>
@@ -3238,10 +3238,10 @@
         <v>28</v>
       </c>
       <c r="AN19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3301,13 +3301,13 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
         <v>2.1</v>
@@ -3532,22 +3532,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3595,10 +3595,10 @@
         <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="n">
         <v>26</v>
@@ -3619,19 +3619,19 @@
         <v>126</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
         <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
         <v>23</v>
@@ -3831,13 +3831,13 @@
         <v>1.75</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
         <v>2.6</v>
       </c>
       <c r="L24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
@@ -3846,10 +3846,10 @@
         <v>26</v>
       </c>
       <c r="O24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="n">
         <v>1.36</v>
@@ -3858,10 +3858,10 @@
         <v>3.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U24" t="n">
         <v>1.22</v>
@@ -3888,7 +3888,7 @@
         <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD24" t="n">
         <v>21</v>
@@ -4394,13 +4394,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J28" t="n">
         <v>3.2</v>
@@ -4409,19 +4409,19 @@
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
         <v>2.1</v>
@@ -4451,7 +4451,7 @@
         <v>7.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
         <v>10</v>
@@ -4481,7 +4481,7 @@
         <v>301</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
         <v>13</v>
@@ -4553,10 +4553,10 @@
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
@@ -4565,16 +4565,16 @@
         <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U29" t="n">
         <v>1.44</v>
@@ -4817,13 +4817,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
         <v>2.3</v>
@@ -4835,10 +4835,10 @@
         <v>4.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.25</v>
@@ -4847,10 +4847,10 @@
         <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="n">
         <v>3.25</v>
@@ -4958,22 +4958,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
         <v>2.15</v>
       </c>
       <c r="L32" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -4985,7 +4985,7 @@
         <v>1.26</v>
       </c>
       <c r="P32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
         <v>1.78</v>
@@ -4994,10 +4994,10 @@
         <v>1.93</v>
       </c>
       <c r="S32" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="T32" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U32" t="n">
         <v>1.38</v>
@@ -5006,28 +5006,28 @@
         <v>2.82</v>
       </c>
       <c r="W32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X32" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z32" t="n">
         <v>16.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB32" t="n">
         <v>37</v>
       </c>
       <c r="AC32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE32" t="n">
         <v>7.7</v>
@@ -5045,7 +5045,7 @@
         <v>350</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK32" t="n">
         <v>11.5</v>
@@ -5057,10 +5057,10 @@
         <v>22</v>
       </c>
       <c r="AN32" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5240,90 +5240,90 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="H34" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="I34" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J34" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="K34" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="P34" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="R34" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="S34" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="T34" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="U34" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="V34" t="n">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="W34" t="n">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="X34" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Y34" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AA34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC34" t="n">
         <v>12</v>
       </c>
-      <c r="AB34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AD34" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AE34" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG34" t="n">
         <v>50</v>
       </c>
       <c r="AH34" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AI34" t="n">
         <v>101</v>
       </c>
       <c r="AJ34" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="n">
         <v>400</v>
@@ -5335,10 +5335,10 @@
         <v>101</v>
       </c>
       <c r="AN34" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AO34" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS34"/>
+  <dimension ref="A1:AS35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -713,7 +713,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
@@ -746,13 +746,13 @@
         <v>1.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z2" t="n">
         <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB2" t="n">
         <v>8</v>
@@ -776,16 +776,16 @@
         <v>67</v>
       </c>
       <c r="AI2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>126</v>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -863,10 +863,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -881,16 +881,16 @@
         <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y3" t="n">
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
         <v>9.5</v>
@@ -899,7 +899,7 @@
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>41</v>
@@ -936,10 +936,10 @@
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1143,10 +1143,10 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1155,16 +1155,16 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1230,10 +1230,10 @@
         <v>67</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AR5" t="n">
         <v>4.2</v>
@@ -1280,7 +1280,7 @@
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1289,7 +1289,7 @@
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1322,16 +1322,16 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
@@ -1340,7 +1340,7 @@
         <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
@@ -1361,10 +1361,10 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1441,10 +1441,10 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1453,16 +1453,16 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1586,10 +1586,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
@@ -1684,7 +1684,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EqlVmgOq</t>
+          <t>z5V72G5t</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1694,142 +1694,134 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Zira</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Krumovgrad</t>
+          <t>Kapaz</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>1.47</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>4.15</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.2</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.33</v>
       </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.7</v>
       </c>
-      <c r="S9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>8.25</v>
       </c>
       <c r="AG9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>15</v>
       </c>
-      <c r="AH9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>2.05</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GOMNQgeA</t>
+          <t>EqlVmgOq</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1839,146 +1831,142 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.38</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE10" t="n">
         <v>8.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AF10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>9</v>
       </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AK10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM10" t="n">
         <v>29</v>
       </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>101</v>
-      </c>
       <c r="AN10" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1.64</v>
-      </c>
+        <v>2.05</v>
+      </c>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bZ6OeAh2</t>
+          <t>GOMNQgeA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1988,113 +1976,113 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.91</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>8.5</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>9</v>
       </c>
-      <c r="AB11" t="n">
-        <v>8</v>
-      </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AH11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI11" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
@@ -2106,28 +2094,28 @@
         <v>101</v>
       </c>
       <c r="AN11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0KzbKyUQ</t>
+          <t>bZ6OeAh2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2137,138 +2125,146 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pafos</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H12" t="n">
         <v>4.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.65</v>
-      </c>
       <c r="I12" t="n">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>4.7</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>2.27</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="U12" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V12" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="X12" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.25</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="AA12" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
-        <v>80</v>
+        <v>8.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="n">
-        <v>1250</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>7.8</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="AN12" t="n">
-        <v>16.5</v>
+        <v>51</v>
       </c>
       <c r="AO12" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W2RTEFil</t>
+          <t>0KzbKyUQ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2288,115 +2284,115 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Apollon</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.72</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>2.47</v>
+        <v>1.75</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U13" t="n">
         <v>1.42</v>
       </c>
       <c r="V13" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.9</v>
+        <v>10.25</v>
       </c>
       <c r="Z13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM13" t="n">
         <v>14</v>
       </c>
-      <c r="AA13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AN13" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>800</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>37</v>
@@ -2409,7 +2405,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Agn3TE6s</t>
+          <t>W2RTEFil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2429,115 +2425,115 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Paralimni</t>
+          <t>Apollon</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.35</v>
+        <v>2.72</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.37</v>
+        <v>3.05</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="R14" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="U14" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="V14" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="W14" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN14" t="n">
         <v>24</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>37</v>
@@ -2550,7 +2546,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>O4YryCE8</t>
+          <t>Agn3TE6s</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2560,128 +2556,128 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Paralimni</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2.15</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>15</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
-        <v>2.63</v>
+        <v>3.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="U15" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="V15" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="W15" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN15" t="n">
         <v>17</v>
       </c>
-      <c r="AD15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>21</v>
-      </c>
       <c r="AO15" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2691,7 +2687,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hlr7aJOs</t>
+          <t>O4YryCE8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2701,128 +2697,128 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y16" t="n">
         <v>10</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE16" t="n">
         <v>15</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>9</v>
       </c>
       <c r="AF16" t="n">
         <v>7</v>
       </c>
       <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK16" t="n">
         <v>17</v>
       </c>
-      <c r="AH16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="AL16" t="n">
         <v>11</v>
       </c>
-      <c r="AK16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>15</v>
-      </c>
       <c r="AM16" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2832,7 +2828,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6R0cXXn3</t>
+          <t>hlr7aJOs</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2842,65 +2838,65 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
         <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U17" t="n">
         <v>1.44</v>
@@ -2909,37 +2905,37 @@
         <v>2.63</v>
       </c>
       <c r="W17" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AA17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB17" t="n">
         <v>13</v>
       </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
       <c r="AC17" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>7</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
@@ -2948,40 +2944,32 @@
         <v>351</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>1.41</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dpZv4irR</t>
+          <t>6R0cXXn3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2991,134 +2979,146 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>2.22</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+        <v>2.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>2.82</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U18" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="V18" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X18" t="n">
         <v>1.83</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.7</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>8.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hGKAbV5l</t>
+          <t>dpZv4irR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3138,110 +3138,114 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>2.52</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.92</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+        <v>1.33</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.57</v>
+      </c>
       <c r="W19" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="X19" t="n">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="Y19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE19" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13.5</v>
       </c>
       <c r="AF19" t="n">
         <v>7.2</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10.75</v>
+        <v>13.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>9.75</v>
+        <v>15.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AO19" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3251,7 +3255,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QB18R3u1</t>
+          <t>hGKAbV5l</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3261,128 +3265,120 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kiryat Shmona</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>2.52</v>
       </c>
       <c r="J20" t="n">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9</v>
-      </c>
+        <v>3.05</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="S20" t="n">
-        <v>3.75</v>
+        <v>2.47</v>
       </c>
       <c r="T20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.63</v>
-      </c>
+        <v>1.42</v>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="X20" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="n">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3392,7 +3388,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4A8vWTTk</t>
+          <t>QB18R3u1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3402,98 +3398,128 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Perak</t>
+          <t>Kiryat Shmona</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.02</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>23</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.14</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>16</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.8</v>
+      </c>
       <c r="Y21" t="n">
-        <v>65</v>
+        <v>6.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>150</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>80</v>
+        <v>6.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AJ21" t="n">
-        <v>450</v>
-      </c>
-      <c r="AK21" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
       <c r="AL21" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>34</v>
+      </c>
       <c r="AO21" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3503,7 +3529,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4266gUBC</t>
+          <t>4A8vWTTk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3513,142 +3539,108 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>1.02</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>24</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>1.13</v>
       </c>
       <c r="K22" t="n">
-        <v>2.25</v>
+        <v>5.3</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>13</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X22" t="n">
-        <v>2.25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AF22" t="n">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AI22" t="n">
-        <v>126</v>
+        <v>700</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>13</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>19</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="n">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>1.83</v>
-      </c>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>fsGsAAQH</t>
+          <t>4266gUBC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3668,132 +3660,132 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="J23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
         <v>4</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>19</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Q23" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="U23" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="V23" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
         <v>15</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
         <v>21</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>23</v>
       </c>
       <c r="AD23" t="n">
         <v>26</v>
       </c>
       <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN23" t="n">
         <v>19</v>
       </c>
-      <c r="AF23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>13</v>
-      </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gd4j8leU</t>
+          <t>fsGsAAQH</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3813,73 +3805,73 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>19</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V24" t="n">
         <v>3.75</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N24" t="n">
-        <v>26</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V24" t="n">
-        <v>4</v>
-      </c>
       <c r="W24" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
         <v>12</v>
@@ -3888,16 +3880,16 @@
         <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
@@ -3906,13 +3898,13 @@
         <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>9</v>
@@ -3921,20 +3913,24 @@
         <v>17</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
+      <c r="AR24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MFEkurDd</t>
+          <t>Gd4j8leU</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3944,128 +3940,128 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="L25" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
+        <v>26</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL25" t="n">
         <v>9</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>11</v>
-      </c>
       <c r="AM25" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4075,7 +4071,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nmg26IrA</t>
+          <t>MFEkurDd</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4085,101 +4081,101 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Binacional</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y26" t="n">
         <v>7.5</v>
       </c>
       <c r="Z26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA26" t="n">
         <v>10</v>
       </c>
-      <c r="AA26" t="n">
-        <v>9</v>
-      </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>15</v>
@@ -4188,43 +4184,35 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AJ26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL26" t="n">
         <v>11</v>
       </c>
-      <c r="AK26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>12</v>
-      </c>
       <c r="AM26" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
         <v>34</v>
       </c>
-      <c r="AP26" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>1.49</v>
-      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>21viZf0M</t>
+          <t>nmg26IrA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4234,138 +4222,146 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Binacional</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
         <v>2.2</v>
       </c>
       <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S27" t="n">
         <v>3.4</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>13</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="T27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.8</v>
       </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V27" t="n">
-        <v>3</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.62</v>
-      </c>
       <c r="X27" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="n">
         <v>17</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
         <v>6.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ27" t="n">
         <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
         <v>29</v>
       </c>
-      <c r="AN27" t="n">
-        <v>21</v>
-      </c>
       <c r="AO27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t4uPHwyQ</t>
+          <t>21viZf0M</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4380,111 +4376,111 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
         <v>2.75</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>9</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="T28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.36</v>
       </c>
-      <c r="P28" t="n">
+      <c r="V28" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.63</v>
-      </c>
       <c r="W28" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="X28" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB28" t="n">
         <v>23</v>
       </c>
       <c r="AC28" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
         <v>6.5</v>
       </c>
       <c r="AG28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK28" t="n">
         <v>15</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>13</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -4493,10 +4489,10 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4506,7 +4502,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nPnXA6Gs</t>
+          <t>t4uPHwyQ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4516,47 +4512,47 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
@@ -4583,61 +4579,61 @@
         <v>2.63</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X29" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="Y29" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AD29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE29" t="n">
         <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN29" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -4647,7 +4643,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>hAg8D3Ej</t>
+          <t>nPnXA6Gs</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4657,128 +4653,128 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J30" t="n">
         <v>2.3</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P30" t="n">
         <v>3.25</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N30" t="n">
-        <v>11</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.25</v>
       </c>
-      <c r="P30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.36</v>
-      </c>
       <c r="U30" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="V30" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Y30" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE30" t="n">
         <v>9</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AF30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>451</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>12</v>
       </c>
-      <c r="AA30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD30" t="n">
+      <c r="AK30" t="n">
         <v>26</v>
       </c>
-      <c r="AE30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH30" t="n">
+      <c r="AL30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN30" t="n">
         <v>41</v>
       </c>
-      <c r="AI30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>23</v>
-      </c>
       <c r="AO30" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4788,7 +4784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vRaoLfGa</t>
+          <t>hAg8D3Ej</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4798,7 +4794,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4808,31 +4804,31 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -4847,79 +4843,79 @@
         <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="X31" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="n">
         <v>26</v>
       </c>
       <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>10</v>
       </c>
-      <c r="AF31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG31" t="n">
+      <c r="AK31" t="n">
         <v>15</v>
       </c>
-      <c r="AH31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>600</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>26</v>
-      </c>
       <c r="AL31" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AM31" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN31" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4929,7 +4925,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UDsXooT6</t>
+          <t>vRaoLfGa</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4939,128 +4935,128 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="K32" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="R32" t="n">
         <v>1.93</v>
       </c>
       <c r="S32" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="T32" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="U32" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="V32" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="W32" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="X32" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.25</v>
+        <v>7.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="AF32" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AK32" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="AL32" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AM32" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AN32" t="n">
-        <v>16.5</v>
+        <v>41</v>
       </c>
       <c r="AO32" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5070,7 +5066,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0YaBlXH8</t>
+          <t>UDsXooT6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5080,128 +5076,128 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.6</v>
       </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.63</v>
-      </c>
       <c r="K33" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="L33" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>19</v>
+        <v>7.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="T33" t="n">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="U33" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="V33" t="n">
-        <v>3.75</v>
+        <v>2.87</v>
       </c>
       <c r="W33" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="X33" t="n">
-        <v>2.75</v>
+        <v>2.12</v>
       </c>
       <c r="Y33" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB33" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AC33" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AD33" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AE33" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM33" t="n">
         <v>21</v>
       </c>
-      <c r="AF33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>34</v>
-      </c>
       <c r="AN33" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AO33" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5211,7 +5207,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>vZZvrOA7</t>
+          <t>0YaBlXH8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5221,130 +5217,271 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.09</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>1.39</v>
+        <v>2.63</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L34" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+        <v>3.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N34" t="n">
+        <v>19</v>
+      </c>
       <c r="O34" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P34" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="R34" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="S34" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U34" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="V34" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="W34" t="n">
-        <v>2.47</v>
+        <v>1.4</v>
       </c>
       <c r="X34" t="n">
-        <v>1.42</v>
+        <v>2.75</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z34" t="n">
-        <v>5.8</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>5.7</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL34" t="n">
         <v>12</v>
       </c>
-      <c r="AD34" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>100</v>
-      </c>
       <c r="AM34" t="n">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="AN34" t="n">
-        <v>700</v>
+        <v>21</v>
       </c>
       <c r="AO34" t="n">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vZZvrOA7</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Livyi Bereg</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>700</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>350</v>
+      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS35"/>
+  <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,19 +1713,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L9" t="n">
         <v>5.8</v>
@@ -1733,73 +1733,73 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="S9" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V9" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="W9" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="X9" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE9" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>11</v>
-      </c>
       <c r="AF9" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI9" t="n">
         <v>900</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL9" t="n">
         <v>19.5</v>
@@ -1811,7 +1811,7 @@
         <v>70</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1856,46 +1856,46 @@
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
         <v>3</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
         <v>1.83</v>
@@ -1904,7 +1904,7 @@
         <v>1.83</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
@@ -1922,7 +1922,7 @@
         <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
         <v>6</v>
@@ -1934,25 +1934,25 @@
         <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP10" t="n">
         <v>1.8</v>
@@ -2115,17 +2115,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bZ6OeAh2</t>
+          <t>fysNcium</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>24/02/2025</t>
+          <t>23/02/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:20</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2135,136 +2135,136 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.38</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
         <v>7</v>
       </c>
-      <c r="J12" t="n">
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.91</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="X12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y12" t="n">
         <v>8</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK12" t="n">
         <v>11</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AL12" t="n">
         <v>10</v>
       </c>
-      <c r="AF12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AM12" t="n">
         <v>26</v>
       </c>
-      <c r="AH12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AN12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO12" t="n">
         <v>41</v>
       </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>67</v>
-      </c>
       <c r="AP12" t="n">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0KzbKyUQ</t>
+          <t>bZ6OeAh2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2274,138 +2274,146 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pafos</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H13" t="n">
         <v>4.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.65</v>
-      </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="J13" t="n">
-        <v>4.7</v>
+        <v>1.95</v>
       </c>
       <c r="K13" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.27</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="U13" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="X13" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.25</v>
+        <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AB13" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="n">
-        <v>1250</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.8</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="n">
-        <v>16.5</v>
+        <v>51</v>
       </c>
       <c r="AO13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W2RTEFil</t>
+          <t>0KzbKyUQ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2425,37 +2433,37 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Apollon</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.72</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="L14" t="n">
-        <v>3.05</v>
+        <v>2.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.37</v>
@@ -2479,61 +2487,61 @@
         <v>1.42</v>
       </c>
       <c r="V14" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="W14" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="Y14" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="Z14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM14" t="n">
         <v>14</v>
       </c>
-      <c r="AA14" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>800</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>28</v>
-      </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AO14" t="n">
         <v>37</v>
@@ -2546,7 +2554,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Agn3TE6s</t>
+          <t>W2RTEFil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2566,115 +2574,115 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Paralimni</t>
+          <t>Apollon</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.35</v>
+        <v>2.72</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.37</v>
+        <v>3.05</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="U15" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="V15" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="W15" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="X15" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN15" t="n">
         <v>24</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>37</v>
@@ -2687,7 +2695,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>O4YryCE8</t>
+          <t>Agn3TE6s</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2697,128 +2705,128 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Paralimni</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.15</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>15</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R16" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>2.63</v>
+        <v>3.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="U16" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="V16" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="W16" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="X16" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN16" t="n">
         <v>17</v>
       </c>
-      <c r="AD16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>21</v>
-      </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2828,7 +2836,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hlr7aJOs</t>
+          <t>O4YryCE8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2838,128 +2846,128 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
         <v>9</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE17" t="n">
         <v>15</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>7</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
         <v>11</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
         <v>21</v>
       </c>
-      <c r="AL17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>41</v>
-      </c>
       <c r="AO17" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2969,7 +2977,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6R0cXXn3</t>
+          <t>hlr7aJOs</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2979,41 +2987,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3022,22 +3030,22 @@
         <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
         <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U18" t="n">
         <v>1.44</v>
@@ -3046,37 +3054,37 @@
         <v>2.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AA18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB18" t="n">
         <v>13</v>
       </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
       <c r="AC18" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>7</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
         <v>51</v>
@@ -3085,40 +3093,32 @@
         <v>351</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1.41</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dpZv4irR</t>
+          <t>6R0cXXn3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3128,134 +3128,146 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.62</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+        <v>2.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="R19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.83</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.78</v>
       </c>
       <c r="X19" t="n">
         <v>1.83</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.6</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="AK19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO19" t="n">
         <v>29</v>
       </c>
-      <c r="AL19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
+      <c r="AP19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hGKAbV5l</t>
+          <t>dpZv4irR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3265,7 +3277,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3275,110 +3287,114 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>2.52</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="K20" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L20" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="R20" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+        <v>1.33</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.57</v>
+      </c>
       <c r="W20" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="X20" t="n">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.5</v>
+        <v>6.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AB20" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>9.75</v>
+        <v>16</v>
       </c>
       <c r="AM20" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3388,7 +3404,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>QB18R3u1</t>
+          <t>hGKAbV5l</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3398,128 +3414,120 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kiryat Shmona</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>2.52</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="L21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9</v>
-      </c>
+        <v>3.05</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="S21" t="n">
-        <v>3.75</v>
+        <v>2.47</v>
       </c>
       <c r="T21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.63</v>
-      </c>
+        <v>1.42</v>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="X21" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="n">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AN21" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3529,7 +3537,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4A8vWTTk</t>
+          <t>QB18R3u1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3539,98 +3547,128 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Perak</t>
+          <t>Kiryat Shmona</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.02</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>24</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.13</v>
+        <v>2.6</v>
       </c>
       <c r="K22" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC22" t="n">
         <v>17</v>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z22" t="n">
+      <c r="AD22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
         <v>21</v>
       </c>
-      <c r="AA22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>175</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>350</v>
-      </c>
-      <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>34</v>
+      </c>
       <c r="AO22" t="n">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3640,7 +3678,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4266gUBC</t>
+          <t>4A8vWTTk</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3650,287 +3688,261 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.75</v>
+        <v>1.04</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>10.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>20</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>1.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
         <v>13</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.1</v>
-      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>2.63</v>
+        <v>1.19</v>
       </c>
       <c r="T23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X23" t="n">
-        <v>2.25</v>
-      </c>
+        <v>4.4</v>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB23" t="n">
         <v>11</v>
       </c>
-      <c r="Z23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
       <c r="AC23" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AH23" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="AL23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>23</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="n">
-        <v>19</v>
+        <v>350</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>1.83</v>
-      </c>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fsGsAAQH</t>
+          <t>CSqxcoP6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24/02/2025</t>
+          <t>23/02/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="K24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>17</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S24" t="n">
         <v>2.5</v>
       </c>
-      <c r="L24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N24" t="n">
-        <v>19</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.2</v>
-      </c>
       <c r="T24" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V24" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>41</v>
+        <v>8.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
         <v>26</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AI24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM24" t="n">
         <v>101</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>17</v>
-      </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS24" t="n">
         <v>1.8</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>2.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gd4j8leU</t>
+          <t>4266gUBC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3950,128 +3962,132 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="H25" t="n">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="J25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P25" t="n">
         <v>4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="Q25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S25" t="n">
         <v>2.63</v>
       </c>
-      <c r="L25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="T25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD25" t="n">
         <v>26</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
         <v>7</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA25" t="n">
+      <c r="AG25" t="n">
         <v>12</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AH25" t="n">
         <v>41</v>
       </c>
-      <c r="AC25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>34</v>
-      </c>
       <c r="AI25" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
+      <c r="AR25" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MFEkurDd</t>
+          <t>fsGsAAQH</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4081,138 +4097,142 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N26" t="n">
+        <v>19</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V26" t="n">
         <v>3.75</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="W26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL26" t="n">
         <v>9</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>11</v>
-      </c>
       <c r="AM26" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
+      <c r="AR26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nmg26IrA</t>
+          <t>Gd4j8leU</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4222,146 +4242,138 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Binacional</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>29</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R27" t="n">
         <v>3.4</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="S27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X27" t="n">
         <v>2.75</v>
       </c>
-      <c r="K27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="Y27" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="n">
         <v>11</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AG27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL27" t="n">
         <v>9</v>
       </c>
-      <c r="AB27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC27" t="n">
+      <c r="AM27" t="n">
         <v>17</v>
       </c>
-      <c r="AD27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL27" t="n">
+      <c r="AN27" t="n">
         <v>12</v>
       </c>
-      <c r="AM27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>29</v>
-      </c>
       <c r="AO27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>1.49</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>21viZf0M</t>
+          <t>MFEkurDd</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4371,113 +4383,113 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P28" t="n">
         <v>3</v>
       </c>
-      <c r="K28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N28" t="n">
-        <v>13</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
       <c r="Q28" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="U28" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W28" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="X28" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="n">
         <v>23</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AK28" t="n">
         <v>15</v>
@@ -4489,10 +4501,10 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4502,7 +4514,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t4uPHwyQ</t>
+          <t>nmg26IrA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4512,98 +4524,98 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Binacional</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J29" t="n">
         <v>2.75</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K29" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="S29" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y29" t="n">
         <v>7.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE29" t="n">
         <v>10</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>6.5</v>
@@ -4615,35 +4627,43 @@
         <v>51</v>
       </c>
       <c r="AI29" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="n">
         <v>29</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>23</v>
       </c>
       <c r="AO29" t="n">
         <v>34</v>
       </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
+      <c r="AP29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>nPnXA6Gs</t>
+          <t>21viZf0M</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4653,128 +4673,128 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="U30" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V30" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="X30" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE30" t="n">
         <v>12</v>
       </c>
-      <c r="AC30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD30" t="n">
+      <c r="AF30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO30" t="n">
         <v>29</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>451</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>51</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4784,7 +4804,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hAg8D3Ej</t>
+          <t>t4uPHwyQ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4794,83 +4814,83 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
         <v>2.75</v>
       </c>
       <c r="J31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P31" t="n">
         <v>3</v>
       </c>
-      <c r="K31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.83</v>
       </c>
-      <c r="R31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.67</v>
-      </c>
       <c r="X31" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
         <v>10</v>
@@ -4879,31 +4899,31 @@
         <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF31" t="n">
         <v>6.5</v>
       </c>
       <c r="AG31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK31" t="n">
         <v>13</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>11</v>
@@ -4912,10 +4932,10 @@
         <v>29</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4925,7 +4945,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vRaoLfGa</t>
+          <t>nPnXA6Gs</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4935,113 +4955,113 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J32" t="n">
         <v>2.3</v>
       </c>
       <c r="K32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
         <v>10</v>
       </c>
       <c r="O32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.25</v>
       </c>
-      <c r="P32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W32" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Z32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA32" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA32" t="n">
-        <v>9</v>
-      </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF32" t="n">
         <v>7</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI32" t="n">
-        <v>600</v>
+        <v>451</v>
       </c>
       <c r="AJ32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
         <v>26</v>
@@ -5056,7 +5076,7 @@
         <v>41</v>
       </c>
       <c r="AO32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5066,7 +5086,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UDsXooT6</t>
+          <t>hAg8D3Ej</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5076,128 +5096,128 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J33" t="n">
         <v>3</v>
       </c>
-      <c r="H33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K33" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U33" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="V33" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AA33" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AB33" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AC33" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE33" t="n">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="AF33" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AG33" t="n">
         <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AI33" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AJ33" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AK33" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="AL33" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AM33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN33" t="n">
         <v>21</v>
       </c>
-      <c r="AN33" t="n">
-        <v>16</v>
-      </c>
       <c r="AO33" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5207,7 +5227,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0YaBlXH8</t>
+          <t>vRaoLfGa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5217,128 +5237,128 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K34" t="n">
         <v>2.2</v>
       </c>
-      <c r="H34" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.5</v>
-      </c>
       <c r="L34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S34" t="n">
         <v>3.25</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N34" t="n">
-        <v>19</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P34" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
       <c r="T34" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="U34" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="V34" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="W34" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X34" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="Y34" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
         <v>15</v>
       </c>
       <c r="AD34" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AF34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>600</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK34" t="n">
         <v>26</v>
       </c>
-      <c r="AI34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ34" t="n">
+      <c r="AL34" t="n">
         <v>17</v>
       </c>
-      <c r="AK34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>12</v>
-      </c>
       <c r="AM34" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN34" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AO34" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5348,7 +5368,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vZZvrOA7</t>
+          <t>UDsXooT6</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5358,130 +5378,412 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.09</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>7.3</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC35" t="n">
         <v>25</v>
       </c>
-      <c r="J35" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="AD35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN35" t="n">
         <v>15.5</v>
       </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="V35" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>700</v>
-      </c>
       <c r="AO35" t="n">
-        <v>350</v>
+        <v>23</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0YaBlXH8</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N36" t="n">
+        <v>21</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P36" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vZZvrOA7</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Livyi Bereg</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="V37" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>700</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>350</v>
+      </c>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS37"/>
+  <dimension ref="A1:AS35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,10 +1087,10 @@
         <v>1.78</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
         <v>5.25</v>
@@ -1143,10 +1143,10 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1155,16 +1155,16 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1173,13 +1173,13 @@
         <v>2.25</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z5" t="n">
         <v>6.5</v>
@@ -1188,10 +1188,10 @@
         <v>9.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1212,7 +1212,7 @@
         <v>800</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
         <v>26</v>
@@ -1230,10 +1230,10 @@
         <v>67</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR5" t="n">
         <v>4.2</v>
@@ -1280,7 +1280,7 @@
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1289,7 +1289,7 @@
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1322,16 +1322,16 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
@@ -1340,7 +1340,7 @@
         <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
@@ -1361,10 +1361,10 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1453,16 +1453,16 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1713,22 +1713,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="K9" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L9" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1739,10 +1739,10 @@
         <v>2.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
         <v>3.05</v>
@@ -1751,67 +1751,67 @@
         <v>1.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V9" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W9" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="X9" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE9" t="n">
         <v>10</v>
       </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AF9" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI9" t="n">
         <v>900</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO9" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1850,22 +1850,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1904,7 +1904,7 @@
         <v>1.83</v>
       </c>
       <c r="Y10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
@@ -1937,16 +1937,16 @@
         <v>351</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
@@ -2004,7 +2004,7 @@
         <v>8.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="K11" t="n">
         <v>2.4</v>
@@ -2115,17 +2115,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fysNcium</t>
+          <t>bZ6OeAh2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23/02/2025</t>
+          <t>24/02/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2135,136 +2135,136 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>2.55</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="AR12" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>800</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>3.7</v>
-      </c>
       <c r="AS12" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bZ6OeAh2</t>
+          <t>0KzbKyUQ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2274,146 +2274,138 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
       <c r="J13" t="n">
-        <v>1.95</v>
+        <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>2.27</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="Q13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W13" t="n">
         <v>2</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.25</v>
-      </c>
       <c r="X13" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="Y13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>6</v>
       </c>
-      <c r="Z13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AK13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AL13" t="n">
         <v>9</v>
       </c>
-      <c r="AB13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>23</v>
-      </c>
       <c r="AM13" t="n">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>51</v>
+        <v>16.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>1.45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0KzbKyUQ</t>
+          <t>W2RTEFil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2433,40 +2425,40 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Apollon</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pafos</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.27</v>
+        <v>3.05</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
         <v>2.95</v>
@@ -2478,70 +2470,70 @@
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U14" t="n">
         <v>1.42</v>
       </c>
       <c r="V14" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="Y14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL14" t="n">
         <v>10.25</v>
       </c>
-      <c r="Z14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>9</v>
-      </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AN14" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
         <v>37</v>
@@ -2554,7 +2546,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W2RTEFil</t>
+          <t>Agn3TE6s</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2574,115 +2566,115 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Apollon</t>
+          <t>Paralimni</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>1.82</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3.05</v>
+        <v>2.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="U15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="W15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="Y15" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="Z15" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.75</v>
+        <v>16</v>
       </c>
       <c r="AB15" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AD15" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AI15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="AK15" t="n">
-        <v>12.5</v>
+        <v>8.25</v>
       </c>
       <c r="AL15" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AM15" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>37</v>
@@ -2695,7 +2687,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Agn3TE6s</t>
+          <t>O4YryCE8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2705,128 +2697,128 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Paralimni</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.35</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>4.7</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2.37</v>
+        <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.9</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.85</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R16" t="n">
         <v>2.15</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S16" t="n">
-        <v>3.8</v>
+        <v>2.63</v>
       </c>
       <c r="T16" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="U16" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="V16" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="W16" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="X16" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AD16" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.9</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5.8</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>7.9</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2836,7 +2828,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>O4YryCE8</t>
+          <t>hlr7aJOs</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2846,128 +2838,128 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
         <v>15</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AD17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE17" t="n">
         <v>9</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>7</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
         <v>41</v>
       </c>
-      <c r="AI17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>21</v>
-      </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2977,7 +2969,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hlr7aJOs</t>
+          <t>6R0cXXn3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2987,41 +2979,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J18" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.4</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3030,95 +3022,103 @@
         <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X18" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
         <v>7</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AL18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM18" t="n">
         <v>15</v>
       </c>
-      <c r="AM18" t="n">
-        <v>51</v>
-      </c>
       <c r="AN18" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6R0cXXn3</t>
+          <t>dpZv4irR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3128,146 +3128,134 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.9</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S19" t="n">
-        <v>3.75</v>
+        <v>2.67</v>
       </c>
       <c r="T19" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U19" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="V19" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="X19" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>6.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>7.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>10.75</v>
       </c>
       <c r="AC19" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AF19" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="n">
-        <v>301</v>
+        <v>600</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
-        <v>8.5</v>
+        <v>35</v>
       </c>
       <c r="AL19" t="n">
-        <v>8.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>1.41</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dpZv4irR</t>
+          <t>hGKAbV5l</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3277,7 +3265,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3287,114 +3275,110 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>2.52</v>
       </c>
       <c r="J20" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>5.1</v>
+        <v>3.05</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.57</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="X20" t="n">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
         <v>6.9</v>
       </c>
-      <c r="Z20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AG20" t="n">
         <v>12</v>
       </c>
-      <c r="AC20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>16</v>
+        <v>9.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3404,7 +3388,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hGKAbV5l</t>
+          <t>QB18R3u1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3414,120 +3398,128 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Kiryat Shmona</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.52</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>2.47</v>
+        <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+        <v>1.25</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.63</v>
+      </c>
       <c r="W21" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="X21" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB21" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="AM21" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3537,7 +3529,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>QB18R3u1</t>
+          <t>4A8vWTTk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3547,128 +3539,106 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kiryat Shmona</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>25</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>1.19</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>4.45</v>
       </c>
       <c r="L22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>9</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>1.17</v>
       </c>
       <c r="T22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.8</v>
-      </c>
+        <v>4.7</v>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>6.5</v>
+        <v>37</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>10.75</v>
       </c>
       <c r="AC22" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE22" t="n">
-        <v>8.5</v>
+        <v>90</v>
       </c>
       <c r="AF22" t="n">
-        <v>6.5</v>
+        <v>45</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AH22" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="n">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>400</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
       <c r="AO22" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3678,7 +3648,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4A8vWTTk</t>
+          <t>4266gUBC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3688,261 +3658,287 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Johor DT</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Perak</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
         <v>1.04</v>
       </c>
-      <c r="H23" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="I23" t="n">
-        <v>20</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>13</v>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.1</v>
+      </c>
       <c r="S23" t="n">
-        <v>1.19</v>
+        <v>2.63</v>
       </c>
       <c r="T23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
+        <v>1.44</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.25</v>
+      </c>
       <c r="Y23" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AD23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE23" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AJ23" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM23" t="inlineStr"/>
+        <v>9.5</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>23</v>
+      </c>
       <c r="AN23" t="n">
-        <v>350</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
+      <c r="AR23" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSqxcoP6</t>
+          <t>fsGsAAQH</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23/02/2025</t>
+          <t>24/02/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.33</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>19</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P24" t="n">
         <v>5.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="Q24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R24" t="n">
         <v>2.6</v>
       </c>
-      <c r="L24" t="n">
-        <v>8</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
-        <v>17</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.25</v>
-      </c>
       <c r="S24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X24" t="n">
         <v>2.5</v>
       </c>
-      <c r="T24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.75</v>
-      </c>
       <c r="Y24" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AD24" t="n">
         <v>26</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AM24" t="n">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="AN24" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS24" t="n">
         <v>2.05</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>1.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4266gUBC</t>
+          <t>Gd4j8leU</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3962,132 +3958,128 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>26</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X25" t="n">
         <v>2.75</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>13</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
         <v>21</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
         <v>13</v>
       </c>
-      <c r="AF25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12</v>
-      </c>
       <c r="AH25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>1.83</v>
-      </c>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>fsGsAAQH</t>
+          <t>MFEkurDd</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4097,142 +4089,138 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.5</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>4.2</v>
       </c>
-      <c r="I26" t="n">
-        <v>1.85</v>
-      </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="V26" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="X26" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB26" t="n">
         <v>15</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AC26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK26" t="n">
         <v>21</v>
       </c>
-      <c r="AA26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB26" t="n">
+      <c r="AL26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM26" t="n">
         <v>41</v>
       </c>
-      <c r="AC26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH26" t="n">
+      <c r="AN26" t="n">
         <v>34</v>
       </c>
-      <c r="AI26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>13</v>
-      </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>2.05</v>
-      </c>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gd4j8leU</t>
+          <t>nmg26IrA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4242,138 +4230,146 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Binacional</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
         <v>29</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH27" t="n">
+      <c r="AO27" t="n">
         <v>34</v>
       </c>
-      <c r="AI27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
+      <c r="AP27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MFEkurDd</t>
+          <t>21viZf0M</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4383,128 +4379,128 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
+        <v>13</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA28" t="n">
         <v>9</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z28" t="n">
+      <c r="AB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>11</v>
       </c>
-      <c r="AA28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
       </c>
       <c r="AM28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO28" t="n">
         <v>29</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>34</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4514,7 +4510,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nmg26IrA</t>
+          <t>t4uPHwyQ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4524,98 +4520,98 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Binacional</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L29" t="n">
         <v>3.5</v>
       </c>
-      <c r="J29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4</v>
-      </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="R29" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y29" t="n">
         <v>7.5</v>
       </c>
       <c r="Z29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA29" t="n">
         <v>10</v>
       </c>
-      <c r="AA29" t="n">
-        <v>9</v>
-      </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AF29" t="n">
         <v>6.5</v>
@@ -4627,43 +4623,35 @@
         <v>51</v>
       </c>
       <c r="AI29" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AJ29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL29" t="n">
         <v>11</v>
       </c>
-      <c r="AK29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>12</v>
-      </c>
       <c r="AM29" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
         <v>34</v>
       </c>
-      <c r="AP29" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>1.49</v>
-      </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>21viZf0M</t>
+          <t>nPnXA6Gs</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4673,128 +4661,128 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P30" t="n">
         <v>3</v>
       </c>
-      <c r="J30" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N30" t="n">
-        <v>12</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.22</v>
       </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="U30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W30" t="n">
         <v>2</v>
       </c>
-      <c r="S30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.62</v>
-      </c>
       <c r="X30" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AI30" t="n">
-        <v>151</v>
+        <v>451</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
       </c>
       <c r="AK30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL30" t="n">
         <v>17</v>
       </c>
-      <c r="AL30" t="n">
-        <v>11</v>
-      </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AO30" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4804,7 +4792,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t4uPHwyQ</t>
+          <t>hAg8D3Ej</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4814,83 +4802,83 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L31" t="n">
         <v>3.2</v>
       </c>
-      <c r="K31" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.36</v>
       </c>
-      <c r="P31" t="n">
+      <c r="U31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V31" t="n">
         <v>3</v>
       </c>
-      <c r="Q31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="W31" t="n">
         <v>1.67</v>
       </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X31" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
         <v>10</v>
@@ -4899,43 +4887,43 @@
         <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>6.5</v>
       </c>
       <c r="AG31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK31" t="n">
         <v>15</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>13</v>
       </c>
       <c r="AL31" t="n">
         <v>11</v>
       </c>
       <c r="AM31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO31" t="n">
         <v>29</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>34</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4945,7 +4933,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>nPnXA6Gs</t>
+          <t>vRaoLfGa</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4955,113 +4943,113 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J32" t="n">
         <v>2.3</v>
       </c>
       <c r="K32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.33</v>
       </c>
-      <c r="P32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.25</v>
-      </c>
       <c r="U32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X32" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="Y32" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF32" t="n">
         <v>7</v>
       </c>
       <c r="AG32" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK32" t="n">
         <v>26</v>
@@ -5076,7 +5064,7 @@
         <v>41</v>
       </c>
       <c r="AO32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5086,7 +5074,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hAg8D3Ej</t>
+          <t>UDsXooT6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5096,128 +5084,128 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.75</v>
+        <v>2.07</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
         <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.25</v>
+        <v>2.67</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
         <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U33" t="n">
         <v>1.36</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X33" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z33" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB33" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AC33" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AD33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE33" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF33" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AG33" t="n">
         <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AJ33" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AK33" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AL33" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AM33" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AN33" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5227,7 +5215,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>vRaoLfGa</t>
+          <t>0YaBlXH8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5237,128 +5225,128 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L34" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O34" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.25</v>
       </c>
-      <c r="P34" t="n">
+      <c r="V34" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q34" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="W34" t="n">
         <v>1.4</v>
       </c>
-      <c r="V34" t="n">
+      <c r="X34" t="n">
         <v>2.75</v>
       </c>
-      <c r="W34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.91</v>
-      </c>
       <c r="Y34" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
         <v>15</v>
       </c>
       <c r="AD34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH34" t="n">
         <v>26</v>
       </c>
-      <c r="AE34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>51</v>
-      </c>
       <c r="AI34" t="n">
-        <v>600</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK34" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL34" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AM34" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN34" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AO34" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5368,7 +5356,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UDsXooT6</t>
+          <t>vZZvrOA7</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5378,412 +5366,130 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Livyi Bereg</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>1.09</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
       <c r="I35" t="n">
-        <v>2.07</v>
+        <v>25</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>1.39</v>
       </c>
       <c r="K35" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N35" t="n">
-        <v>8</v>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="P35" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="R35" t="n">
-        <v>1.98</v>
+        <v>2.62</v>
       </c>
       <c r="S35" t="n">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="T35" t="n">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="U35" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="V35" t="n">
-        <v>2.92</v>
+        <v>4.25</v>
       </c>
       <c r="W35" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="X35" t="n">
-        <v>2.15</v>
+        <v>1.42</v>
       </c>
       <c r="Y35" t="n">
-        <v>11.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE35" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>8</v>
-      </c>
       <c r="AF35" t="n">
-        <v>6.8</v>
+        <v>18.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AI35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>700</v>
+      </c>
+      <c r="AO35" t="n">
         <v>350</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>23</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>0YaBlXH8</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>24/02/2025</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N36" t="n">
-        <v>21</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P36" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X36" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>vZZvrOA7</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>24/02/2025</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Shakhtar Donetsk</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Livyi Bereg</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="H37" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="I37" t="n">
-        <v>25</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3</v>
-      </c>
-      <c r="L37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="V37" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="W37" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>700</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>350</v>
-      </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -722,10 +722,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>2.75</v>
@@ -746,10 +746,10 @@
         <v>1.7</v>
       </c>
       <c r="Y2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>6</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
@@ -758,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>29</v>
@@ -890,7 +890,7 @@
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
         <v>9.5</v>
@@ -899,7 +899,7 @@
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
         <v>41</v>
@@ -1149,10 +1149,10 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.6</v>
@@ -1179,7 +1179,7 @@
         <v>1.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="n">
         <v>6.5</v>
@@ -1215,7 +1215,7 @@
         <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
@@ -1227,19 +1227,19 @@
         <v>51</v>
       </c>
       <c r="AO5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
@@ -1722,13 +1722,13 @@
         <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="K9" t="n">
         <v>2.15</v>
       </c>
       <c r="L9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1739,10 +1739,10 @@
         <v>2.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S9" t="n">
         <v>3.05</v>
@@ -1751,10 +1751,10 @@
         <v>1.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V9" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="W9" t="n">
         <v>1.93</v>
@@ -1763,7 +1763,7 @@
         <v>1.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
         <v>6.8</v>
@@ -1772,13 +1772,13 @@
         <v>8.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
         <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
@@ -1787,16 +1787,16 @@
         <v>7.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH9" t="n">
         <v>100</v>
       </c>
       <c r="AI9" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
         <v>29</v>
@@ -1850,22 +1850,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1904,7 +1904,7 @@
         <v>1.83</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
@@ -1937,16 +1937,16 @@
         <v>351</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
@@ -2004,7 +2004,7 @@
         <v>8.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="K11" t="n">
         <v>2.4</v>
@@ -2153,7 +2153,7 @@
         <v>7.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -2575,22 +2575,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="J15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L15" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2617,46 +2617,46 @@
         <v>1.24</v>
       </c>
       <c r="U15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V15" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE15" t="n">
         <v>6.8</v>
       </c>
       <c r="AF15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2665,16 +2665,16 @@
         <v>5.9</v>
       </c>
       <c r="AK15" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM15" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>37</v>
@@ -2716,16 +2716,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
@@ -2764,10 +2764,10 @@
         <v>3.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -2794,13 +2794,13 @@
         <v>7</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ16" t="n">
         <v>12</v>
@@ -2857,28 +2857,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -2911,13 +2911,13 @@
         <v>1.73</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z17" t="n">
         <v>7.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB17" t="n">
         <v>13</v>
@@ -2926,10 +2926,10 @@
         <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF17" t="n">
         <v>7</v>
@@ -2938,7 +2938,7 @@
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI17" t="n">
         <v>351</v>
@@ -2947,10 +2947,10 @@
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
@@ -2998,13 +2998,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
         <v>4.5</v>
@@ -3013,7 +3013,7 @@
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3028,16 +3028,16 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U18" t="n">
         <v>1.4</v>
@@ -3088,13 +3088,13 @@
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL18" t="n">
         <v>8.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
         <v>15</v>
@@ -3147,42 +3147,42 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="I19" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="K19" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S19" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="T19" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U19" t="n">
         <v>1.38</v>
@@ -3191,61 +3191,61 @@
         <v>2.57</v>
       </c>
       <c r="W19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X19" t="n">
         <v>1.78</v>
       </c>
-      <c r="X19" t="n">
-        <v>1.82</v>
-      </c>
       <c r="Y19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Z19" t="n">
         <v>6.9</v>
       </c>
-      <c r="Z19" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
@@ -3293,7 +3293,7 @@
         <v>2.52</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
@@ -3304,36 +3304,36 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S20" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="T20" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="Z20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
         <v>9.5</v>
@@ -3342,16 +3342,16 @@
         <v>27</v>
       </c>
       <c r="AC20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -3360,7 +3360,7 @@
         <v>45</v>
       </c>
       <c r="AI20" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ20" t="n">
         <v>10.5</v>
@@ -3561,19 +3561,19 @@
         <v>1.03</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J22" t="n">
         <v>1.19</v>
       </c>
       <c r="K22" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="L22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -3582,63 +3582,63 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Z22" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.75</v>
+        <v>8.75</v>
       </c>
       <c r="AC22" t="n">
         <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE22" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AI22" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="AJ22" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AK22" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AL22" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AO22" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
@@ -3831,7 +3831,7 @@
         <v>1.85</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
         <v>2.5</v>
@@ -3876,7 +3876,7 @@
         <v>2.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z24" t="n">
         <v>21</v>
@@ -3891,10 +3891,10 @@
         <v>23</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>8.5</v>
@@ -3909,7 +3909,7 @@
         <v>101</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>12</v>
@@ -3967,28 +3967,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
         <v>1.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>2.63</v>
       </c>
       <c r="L25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O25" t="n">
         <v>1.1</v>
@@ -3997,10 +3997,10 @@
         <v>7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R25" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S25" t="n">
         <v>1.83</v>
@@ -4021,34 +4021,34 @@
         <v>2.75</v>
       </c>
       <c r="Y25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="n">
         <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
         <v>29</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>34</v>
       </c>
       <c r="AI25" t="n">
         <v>81</v>
@@ -4108,22 +4108,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -4165,13 +4165,13 @@
         <v>6.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA26" t="n">
         <v>9</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
         <v>17</v>
@@ -4180,7 +4180,7 @@
         <v>29</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF26" t="n">
         <v>6.5</v>
@@ -4195,13 +4195,13 @@
         <v>351</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
@@ -4428,10 +4428,10 @@
         <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
         <v>2.75</v>
@@ -4575,10 +4575,10 @@
         <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U29" t="n">
         <v>1.44</v>
@@ -4701,7 +4701,7 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -4710,16 +4710,16 @@
         <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4728,10 +4728,10 @@
         <v>2.63</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y30" t="n">
         <v>6</v>
@@ -4821,34 +4821,34 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H31" t="n">
         <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
         <v>1.8</v>
@@ -4857,10 +4857,10 @@
         <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U31" t="n">
         <v>1.36</v>
@@ -4869,10 +4869,10 @@
         <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y31" t="n">
         <v>10</v>
@@ -4884,10 +4884,10 @@
         <v>10</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD31" t="n">
         <v>26</v>
@@ -4911,10 +4911,10 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM31" t="n">
         <v>26</v>
@@ -4923,7 +4923,7 @@
         <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4962,40 +4962,40 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R32" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S32" t="n">
         <v>3.25</v>
@@ -5052,16 +5052,16 @@
         <v>13</v>
       </c>
       <c r="AK32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO32" t="n">
         <v>41</v>
@@ -5259,25 +5259,25 @@
         <v>2.5</v>
       </c>
       <c r="L34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R34" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S34" t="n">
         <v>2.1</v>
@@ -5307,7 +5307,7 @@
         <v>9.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
         <v>15</v>
@@ -5316,7 +5316,7 @@
         <v>19</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="n">
         <v>7.5</v>
@@ -5325,16 +5325,16 @@
         <v>10</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
         <v>81</v>
       </c>
       <c r="AJ34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="n">
         <v>12</v>
@@ -5346,7 +5346,7 @@
         <v>21</v>
       </c>
       <c r="AO34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -698,22 +698,22 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
@@ -722,10 +722,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>2.75</v>
@@ -740,25 +740,25 @@
         <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y2" t="n">
         <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>29</v>
@@ -770,13 +770,13 @@
         <v>9.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
         <v>67</v>
       </c>
       <c r="AI2" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -791,7 +791,7 @@
         <v>126</v>
       </c>
       <c r="AN2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="n">
         <v>67</v>
@@ -863,10 +863,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -890,7 +890,7 @@
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
         <v>9.5</v>
@@ -899,7 +899,7 @@
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>41</v>
@@ -936,10 +936,10 @@
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -976,28 +976,28 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.8</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.88</v>
-      </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1018,34 +1018,34 @@
         <v>1.13</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y4" t="n">
         <v>6.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE4" t="n">
         <v>5.5</v>
@@ -1054,7 +1054,7 @@
         <v>5.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>81</v>
@@ -1063,10 +1063,10 @@
         <v>501</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.4</v>
@@ -1143,28 +1143,28 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1179,7 +1179,7 @@
         <v>1.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z5" t="n">
         <v>6.5</v>
@@ -1188,7 +1188,7 @@
         <v>9.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
         <v>19</v>
@@ -1203,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>101</v>
@@ -1212,10 +1212,10 @@
         <v>800</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
@@ -1227,19 +1227,19 @@
         <v>51</v>
       </c>
       <c r="AO5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6">
@@ -1274,22 +1274,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1316,61 +1316,61 @@
         <v>1.13</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI6" t="n">
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="n">
         <v>17</v>
       </c>
-      <c r="AL6" t="n">
-        <v>15</v>
-      </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
         <v>41</v>
@@ -1716,81 +1716,81 @@
         <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V9" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="W9" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA9" t="n">
         <v>8.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>32</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AG9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1799,19 +1799,19 @@
         <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -2144,46 +2144,46 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
         <v>7.5</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>8</v>
-      </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
         <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
         <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U12" t="n">
         <v>1.4</v>
@@ -2192,10 +2192,10 @@
         <v>2.75</v>
       </c>
       <c r="W12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y12" t="n">
         <v>6</v>
@@ -2219,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG12" t="n">
         <v>23</v>
@@ -2234,10 +2234,10 @@
         <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>81</v>
@@ -2434,16 +2434,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
         <v>2.52</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
@@ -2455,19 +2455,19 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
         <v>3.55</v>
@@ -2479,13 +2479,13 @@
         <v>1.42</v>
       </c>
       <c r="V14" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="W14" t="n">
         <v>1.8</v>
       </c>
       <c r="X14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -2503,13 +2503,13 @@
         <v>26</v>
       </c>
       <c r="AD14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG14" t="n">
         <v>15.5</v>
@@ -2530,7 +2530,7 @@
         <v>10.25</v>
       </c>
       <c r="AM14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN14" t="n">
         <v>24</v>
@@ -2716,16 +2716,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
         <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
@@ -2734,13 +2734,13 @@
         <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
         <v>4.33</v>
@@ -2752,10 +2752,10 @@
         <v>2.15</v>
       </c>
       <c r="S16" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T16" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U16" t="n">
         <v>1.33</v>
@@ -2782,7 +2782,7 @@
         <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
         <v>21</v>
@@ -2857,31 +2857,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2896,7 +2896,7 @@
         <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U17" t="n">
         <v>1.44</v>
@@ -2926,7 +2926,7 @@
         <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>8.5</v>
@@ -2950,7 +2950,7 @@
         <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>1.9</v>
@@ -3016,19 +3016,19 @@
         <v>2.6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
         <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
         <v>1.8</v>
@@ -3037,13 +3037,13 @@
         <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W18" t="n">
         <v>1.83</v>
@@ -3052,10 +3052,10 @@
         <v>1.83</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3070,10 +3070,10 @@
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG18" t="n">
         <v>17</v>
@@ -3088,13 +3088,13 @@
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL18" t="n">
         <v>8.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN18" t="n">
         <v>15</v>
@@ -3147,42 +3147,42 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="K19" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="L19" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="R19" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="S19" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="T19" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="U19" t="n">
         <v>1.38</v>
@@ -3191,61 +3191,61 @@
         <v>2.57</v>
       </c>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="X19" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO19" t="n">
         <v>90</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>65</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3284,19 +3284,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="J20" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L20" t="n">
         <v>3.05</v>
@@ -3304,81 +3304,81 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="T20" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
         <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="n">
         <v>250</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AM20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
         <v>19</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
@@ -3435,13 +3435,13 @@
         <v>4.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3456,7 +3456,7 @@
         <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U21" t="n">
         <v>1.44</v>
@@ -3465,10 +3465,10 @@
         <v>2.63</v>
       </c>
       <c r="W21" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X21" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y21" t="n">
         <v>6.5</v>
@@ -3561,19 +3561,19 @@
         <v>1.03</v>
       </c>
       <c r="H22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J22" t="n">
         <v>1.19</v>
       </c>
       <c r="K22" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -3582,41 +3582,41 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T22" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF22" t="n">
         <v>40</v>
       </c>
       <c r="AG22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AH22" t="n">
         <v>110</v>
@@ -3628,14 +3628,14 @@
         <v>200</v>
       </c>
       <c r="AK22" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AL22" t="n">
         <v>120</v>
       </c>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AO22" t="n">
         <v>200</v>
@@ -3683,7 +3683,7 @@
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -3737,7 +3737,7 @@
         <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
@@ -3776,7 +3776,7 @@
         <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
         <v>23</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J24" t="n">
         <v>3.75</v>
@@ -3837,7 +3837,7 @@
         <v>2.5</v>
       </c>
       <c r="L24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -3870,13 +3870,13 @@
         <v>3.75</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
         <v>21</v>
@@ -3885,7 +3885,7 @@
         <v>12</v>
       </c>
       <c r="AB24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="n">
         <v>23</v>
@@ -3900,7 +3900,7 @@
         <v>8.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
         <v>34</v>
@@ -3918,7 +3918,7 @@
         <v>9</v>
       </c>
       <c r="AM24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN24" t="n">
         <v>13</v>
@@ -4428,10 +4428,10 @@
         <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
         <v>2.75</v>
@@ -4698,10 +4698,10 @@
         <v>5.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -4737,7 +4737,7 @@
         <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA30" t="n">
         <v>8.5</v>
@@ -4749,7 +4749,7 @@
         <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE30" t="n">
         <v>8.5</v>
@@ -4767,10 +4767,10 @@
         <v>451</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -4821,28 +4821,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
@@ -4869,28 +4869,28 @@
         <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
         <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -4908,7 +4908,7 @@
         <v>151</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
@@ -4917,10 +4917,10 @@
         <v>10</v>
       </c>
       <c r="AM31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -4962,10 +4962,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
         <v>4.5</v>
@@ -4986,10 +4986,10 @@
         <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
         <v>1.9</v>
@@ -5037,7 +5037,7 @@
         <v>10</v>
       </c>
       <c r="AF32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
@@ -5046,7 +5046,7 @@
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ32" t="n">
         <v>13</v>
@@ -5058,7 +5058,7 @@
         <v>15</v>
       </c>
       <c r="AM32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN32" t="n">
         <v>34</v>
@@ -5103,34 +5103,34 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="H33" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L33" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O33" t="n">
         <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q33" t="n">
         <v>1.75</v>
@@ -5139,49 +5139,49 @@
         <v>1.98</v>
       </c>
       <c r="S33" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="T33" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="U33" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="V33" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="W33" t="n">
         <v>1.62</v>
       </c>
       <c r="X33" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="Z33" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AA33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC33" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD33" t="n">
         <v>29</v>
       </c>
       <c r="AE33" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF33" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
         <v>50</v>
@@ -5190,19 +5190,19 @@
         <v>350</v>
       </c>
       <c r="AJ33" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL33" t="n">
         <v>8.75</v>
       </c>
       <c r="AM33" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AN33" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO33" t="n">
         <v>23</v>
@@ -5244,22 +5244,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
         <v>2.75</v>
       </c>
       <c r="K34" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -5274,34 +5274,34 @@
         <v>5.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R34" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S34" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U34" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V34" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z34" t="n">
         <v>13</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>15</v>
       </c>
       <c r="AA34" t="n">
         <v>9.5</v>
@@ -5316,13 +5316,13 @@
         <v>19</v>
       </c>
       <c r="AE34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
         <v>7.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
         <v>29</v>
@@ -5350,8 +5350,12 @@
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
+      <c r="AR34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -713,7 +713,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
@@ -936,10 +936,10 @@
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -994,10 +994,10 @@
         <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1125,46 +1125,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1173,16 +1173,16 @@
         <v>2.25</v>
       </c>
       <c r="W5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y5" t="n">
         <v>4.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="n">
         <v>9.5</v>
@@ -1200,7 +1200,7 @@
         <v>6.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG5" t="n">
         <v>26</v>
@@ -1215,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>67</v>
@@ -1230,16 +1230,16 @@
         <v>67</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="6">
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
@@ -1289,13 +1289,13 @@
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N6" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.57</v>
@@ -1322,16 +1322,16 @@
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y6" t="n">
         <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
         <v>51</v>
@@ -1385,10 +1385,10 @@
         <v>1.8</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="7">
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
         <v>3.9</v>
@@ -1441,13 +1441,13 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P7" t="n">
         <v>2.1</v>
@@ -1462,7 +1462,7 @@
         <v>6.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1474,7 +1474,7 @@
         <v>2.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y7" t="n">
         <v>5</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
@@ -1586,13 +1586,13 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
         <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P8" t="n">
         <v>2.2</v>
@@ -1607,7 +1607,7 @@
         <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U8" t="n">
         <v>1.67</v>
@@ -1616,10 +1616,10 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="X8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Y8" t="n">
         <v>4.75</v>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1713,42 +1713,42 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
         <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K9" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U9" t="n">
         <v>1.39</v>
@@ -1757,61 +1757,61 @@
         <v>2.57</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X9" t="n">
         <v>1.65</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA9" t="n">
         <v>8.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
         <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
       </c>
       <c r="AN9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO9" t="n">
         <v>65</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>70</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -1868,16 +1868,16 @@
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
         <v>2.25</v>
@@ -1889,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U10" t="n">
         <v>1.5</v>
@@ -1898,10 +1898,10 @@
         <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y10" t="n">
         <v>7</v>
@@ -1995,13 +1995,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>1.91</v>
@@ -2010,16 +2010,16 @@
         <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2034,7 +2034,7 @@
         <v>2.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U11" t="n">
         <v>1.33</v>
@@ -2043,10 +2043,10 @@
         <v>3.25</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="X11" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -2064,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
@@ -2073,16 +2073,16 @@
         <v>8.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
@@ -2091,7 +2091,7 @@
         <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="n">
         <v>51</v>
@@ -2144,22 +2144,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2168,22 +2168,22 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.27</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.25</v>
       </c>
       <c r="U12" t="n">
         <v>1.4</v>
@@ -2192,22 +2192,22 @@
         <v>2.75</v>
       </c>
       <c r="W12" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="X12" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA12" t="n">
         <v>9</v>
       </c>
       <c r="AB12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
@@ -2216,37 +2216,37 @@
         <v>34</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI12" t="n">
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP12" t="n">
         <v>1.49</v>
@@ -2731,16 +2731,16 @@
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
         <v>4.33</v>
@@ -2752,10 +2752,10 @@
         <v>2.15</v>
       </c>
       <c r="S16" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T16" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U16" t="n">
         <v>1.33</v>
@@ -2770,7 +2770,7 @@
         <v>2.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
         <v>12</v>
@@ -2794,13 +2794,13 @@
         <v>7</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ16" t="n">
         <v>12</v>
@@ -2815,7 +2815,7 @@
         <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
@@ -2866,7 +2866,7 @@
         <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -2875,16 +2875,16 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
         <v>2.1</v>
@@ -2896,7 +2896,7 @@
         <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U17" t="n">
         <v>1.44</v>
@@ -2911,16 +2911,16 @@
         <v>1.73</v>
       </c>
       <c r="Y17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
         <v>9</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>15</v>
@@ -2932,13 +2932,13 @@
         <v>8.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
         <v>351</v>
@@ -3016,28 +3016,28 @@
         <v>2.6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
         <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U18" t="n">
         <v>1.44</v>
@@ -3284,39 +3284,39 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="J20" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S20" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="T20" t="n">
         <v>1.45</v>
@@ -3324,58 +3324,58 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X20" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="Y20" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AG20" t="n">
         <v>11</v>
       </c>
-      <c r="Z20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AH20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO20" t="n">
         <v>23</v>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
@@ -3435,13 +3435,13 @@
         <v>4.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3456,7 +3456,7 @@
         <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U21" t="n">
         <v>1.44</v>
@@ -3465,10 +3465,10 @@
         <v>2.63</v>
       </c>
       <c r="W21" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X21" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y21" t="n">
         <v>6.5</v>
@@ -3558,22 +3558,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="I22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -3592,53 +3592,53 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AD22" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AF22" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AH22" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="AJ22" t="n">
         <v>200</v>
       </c>
       <c r="AK22" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="n">
         <v>500</v>
       </c>
       <c r="AO22" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3677,13 +3677,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -3737,7 +3737,7 @@
         <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
@@ -3761,7 +3761,7 @@
         <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ23" t="n">
         <v>10</v>
@@ -3828,7 +3828,7 @@
         <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J24" t="n">
         <v>3.75</v>
@@ -3885,7 +3885,7 @@
         <v>12</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
         <v>23</v>
@@ -3976,19 +3976,19 @@
         <v>1.8</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
         <v>2.63</v>
       </c>
       <c r="L25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O25" t="n">
         <v>1.1</v>
@@ -4009,10 +4009,10 @@
         <v>1.83</v>
       </c>
       <c r="U25" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W25" t="n">
         <v>1.4</v>
@@ -4036,10 +4036,10 @@
         <v>23</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
@@ -4060,7 +4060,7 @@
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM25" t="n">
         <v>17</v>
@@ -4108,13 +4108,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
         <v>2.75</v>
@@ -4126,10 +4126,10 @@
         <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -4156,22 +4156,22 @@
         <v>2.63</v>
       </c>
       <c r="W26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA26" t="n">
         <v>9</v>
       </c>
       <c r="AB26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="n">
         <v>17</v>
@@ -4180,7 +4180,7 @@
         <v>29</v>
       </c>
       <c r="AE26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
         <v>6.5</v>
@@ -4192,13 +4192,13 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>13</v>
@@ -4207,7 +4207,7 @@
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
         <v>41</v>
@@ -4398,46 +4398,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H28" t="n">
         <v>3.4</v>
       </c>
       <c r="I28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J28" t="n">
         <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.88</v>
       </c>
       <c r="K28" t="n">
         <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S28" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U28" t="n">
         <v>1.36</v>
@@ -4446,10 +4446,10 @@
         <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y28" t="n">
         <v>9.5</v>
@@ -4458,16 +4458,16 @@
         <v>12</v>
       </c>
       <c r="AA28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>12</v>
@@ -4488,16 +4488,16 @@
         <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
       </c>
       <c r="AM28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
         <v>29</v>
@@ -4698,10 +4698,10 @@
         <v>5.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -4710,16 +4710,16 @@
         <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4911,13 +4911,13 @@
         <v>9.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN31" t="n">
         <v>19</v>
@@ -4980,10 +4980,10 @@
         <v>4.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
@@ -5256,7 +5256,7 @@
         <v>2.75</v>
       </c>
       <c r="K34" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
         <v>3.4</v>
@@ -5265,25 +5265,25 @@
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.57</v>
       </c>
       <c r="U34" t="n">
         <v>1.29</v>
@@ -5292,13 +5292,13 @@
         <v>3.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
         <v>13</v>
@@ -5313,22 +5313,22 @@
         <v>15</v>
       </c>
       <c r="AD34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE34" t="n">
         <v>17</v>
       </c>
       <c r="AF34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="n">
         <v>15</v>
@@ -5346,15 +5346,15 @@
         <v>21</v>
       </c>
       <c r="AO34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="35">
@@ -5389,19 +5389,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J35" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="L35" t="n">
         <v>15.5</v>
@@ -5415,16 +5415,16 @@
         <v>5.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R35" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="S35" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T35" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U35" t="n">
         <v>1.19</v>
@@ -5445,7 +5445,7 @@
         <v>5.8</v>
       </c>
       <c r="AA35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB35" t="n">
         <v>5.7</v>
@@ -5457,13 +5457,13 @@
         <v>45</v>
       </c>
       <c r="AE35" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF35" t="n">
         <v>18.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AH35" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I2" t="n">
         <v>12</v>
@@ -710,13 +710,13 @@
         <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
@@ -728,10 +728,10 @@
         <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U2" t="n">
         <v>1.33</v>
@@ -740,10 +740,10 @@
         <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="Y2" t="n">
         <v>7</v>
@@ -752,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
         <v>7.5</v>
@@ -761,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -773,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="n">
         <v>501</v>
@@ -788,7 +788,7 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN2" t="n">
         <v>81</v>
@@ -863,10 +863,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -881,10 +881,10 @@
         <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y3" t="n">
         <v>5.5</v>
@@ -905,10 +905,10 @@
         <v>41</v>
       </c>
       <c r="AE3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF3" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>6</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
@@ -936,10 +936,10 @@
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -982,7 +982,7 @@
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -994,28 +994,28 @@
         <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U4" t="n">
         <v>1.67</v>
@@ -1036,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1087,10 +1087,10 @@
         <v>1.78</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -1125,19 +1125,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>7</v>
@@ -1149,22 +1149,22 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1173,10 +1173,10 @@
         <v>2.25</v>
       </c>
       <c r="W5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y5" t="n">
         <v>4.75</v>
@@ -1188,10 +1188,10 @@
         <v>9.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1212,7 +1212,7 @@
         <v>800</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1221,7 +1221,7 @@
         <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
         <v>51</v>
@@ -1230,16 +1230,16 @@
         <v>67</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6">
@@ -1280,7 +1280,7 @@
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
@@ -1337,10 +1337,10 @@
         <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
@@ -1349,7 +1349,7 @@
         <v>5.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
@@ -1370,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
         <v>41</v>
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>2.7</v>
@@ -1432,7 +1432,7 @@
         <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
@@ -1441,28 +1441,28 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1474,13 +1474,13 @@
         <v>2.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
@@ -1498,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
@@ -1586,13 +1586,13 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
         <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
         <v>2.2</v>
@@ -1607,7 +1607,7 @@
         <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U8" t="n">
         <v>1.67</v>
@@ -1616,10 +1616,10 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="X8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Y8" t="n">
         <v>4.75</v>
@@ -1713,22 +1713,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L9" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1736,19 +1736,19 @@
         <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U9" t="n">
         <v>1.39</v>
@@ -1757,40 +1757,40 @@
         <v>2.57</v>
       </c>
       <c r="W9" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AG9" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1802,16 +1802,16 @@
         <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO9" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1850,61 +1850,61 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.1</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.75</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
       <c r="T10" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
@@ -1922,7 +1922,7 @@
         <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF10" t="n">
         <v>6</v>
@@ -1934,25 +1934,25 @@
         <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP10" t="n">
         <v>1.8</v>
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K11" t="n">
         <v>2.4</v>
@@ -2013,28 +2013,28 @@
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U11" t="n">
         <v>1.33</v>
@@ -2043,22 +2043,22 @@
         <v>3.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X11" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
@@ -2088,7 +2088,7 @@
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM11" t="n">
         <v>81</v>
@@ -2100,16 +2100,16 @@
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="12">
@@ -2144,46 +2144,46 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="U12" t="n">
         <v>1.4</v>
@@ -2192,16 +2192,16 @@
         <v>2.75</v>
       </c>
       <c r="W12" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="X12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA12" t="n">
         <v>9</v>
@@ -2216,37 +2216,37 @@
         <v>34</v>
       </c>
       <c r="AE12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="n">
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP12" t="n">
         <v>1.49</v>
@@ -2443,13 +2443,13 @@
         <v>2.52</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2470,7 +2470,7 @@
         <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
         <v>1.27</v>
@@ -2479,7 +2479,7 @@
         <v>1.42</v>
       </c>
       <c r="V14" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="W14" t="n">
         <v>1.8</v>
@@ -2488,22 +2488,22 @@
         <v>1.91</v>
       </c>
       <c r="Y14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA14" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB14" t="n">
         <v>35</v>
       </c>
       <c r="AC14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE14" t="n">
         <v>7.1</v>
@@ -2521,7 +2521,7 @@
         <v>700</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
@@ -2533,10 +2533,10 @@
         <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2575,28 +2575,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
         <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="K15" t="n">
         <v>2.07</v>
       </c>
       <c r="L15" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2611,7 +2611,7 @@
         <v>1.65</v>
       </c>
       <c r="S15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T15" t="n">
         <v>1.24</v>
@@ -2629,37 +2629,37 @@
         <v>1.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
         <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="n">
         <v>60</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF15" t="n">
         <v>6.8</v>
       </c>
       <c r="AG15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>110</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ15" t="n">
         <v>5.9</v>
@@ -2671,10 +2671,10 @@
         <v>9.25</v>
       </c>
       <c r="AM15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO15" t="n">
         <v>37</v>
@@ -2734,28 +2734,28 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="U16" t="n">
         <v>1.33</v>
@@ -2875,13 +2875,13 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
         <v>3.25</v>
@@ -2896,7 +2896,7 @@
         <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U17" t="n">
         <v>1.44</v>
@@ -2947,7 +2947,7 @@
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>15</v>
@@ -2998,31 +2998,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
         <v>3.2</v>
@@ -3037,7 +3037,7 @@
         <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U18" t="n">
         <v>1.44</v>
@@ -3046,10 +3046,10 @@
         <v>2.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
@@ -3058,19 +3058,19 @@
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC18" t="n">
         <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>34</v>
       </c>
       <c r="AD18" t="n">
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
@@ -3082,13 +3082,13 @@
         <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
         <v>8.5</v>
@@ -3284,42 +3284,42 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>2.52</v>
+        <v>2.27</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L20" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T20" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3330,28 +3330,28 @@
         <v>2.32</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AA20" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB20" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC20" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
@@ -3366,19 +3366,19 @@
         <v>10.25</v>
       </c>
       <c r="AK20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AN20" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3441,10 +3441,10 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
         <v>2.1</v>
@@ -3558,19 +3558,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="H22" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
         <v>25</v>
       </c>
       <c r="J22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
         <v>15</v>
@@ -3579,61 +3579,67 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6</v>
+      </c>
       <c r="S22" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="T22" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE22" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG22" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH22" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ22" t="n">
         <v>200</v>
       </c>
       <c r="AK22" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL22" t="n">
         <v>110</v>
       </c>
-      <c r="AM22" t="inlineStr"/>
+      <c r="AM22" t="n">
+        <v>101</v>
+      </c>
       <c r="AN22" t="n">
         <v>500</v>
       </c>
@@ -3677,40 +3683,40 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S23" t="n">
         <v>2.63</v>
@@ -3731,13 +3737,13 @@
         <v>2.25</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
@@ -3749,7 +3755,7 @@
         <v>26</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
         <v>7</v>
@@ -3822,40 +3828,40 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
         <v>2.5</v>
       </c>
       <c r="L24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R24" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S24" t="n">
         <v>2.1</v>
@@ -3882,22 +3888,22 @@
         <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
@@ -3906,22 +3912,22 @@
         <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>9</v>
       </c>
       <c r="AM24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
         <v>19</v>
@@ -3997,7 +4003,7 @@
         <v>7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R25" t="n">
         <v>3.1</v>
@@ -4108,28 +4114,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
         <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -4141,7 +4147,7 @@
         <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
         <v>3.75</v>
@@ -4174,7 +4180,7 @@
         <v>19</v>
       </c>
       <c r="AC26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD26" t="n">
         <v>29</v>
@@ -4195,13 +4201,13 @@
         <v>301</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
       </c>
       <c r="AL26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
@@ -4419,7 +4425,7 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O28" t="n">
         <v>1.25</v>
@@ -4572,7 +4578,7 @@
         <v>2.15</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S29" t="n">
         <v>4</v>
@@ -4680,22 +4686,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J30" t="n">
         <v>2.38</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4704,16 +4710,16 @@
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
@@ -4722,28 +4728,28 @@
         <v>1.22</v>
       </c>
       <c r="U30" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V30" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z30" t="n">
         <v>7</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
         <v>15</v>
@@ -4752,22 +4758,22 @@
         <v>34</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
         <v>67</v>
       </c>
       <c r="AI30" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
         <v>26</v>
@@ -4824,58 +4830,58 @@
         <v>2.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X31" t="n">
         <v>2</v>
       </c>
-      <c r="S31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X31" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z31" t="n">
         <v>15</v>
@@ -4887,13 +4893,13 @@
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6.5</v>
@@ -4908,22 +4914,22 @@
         <v>151</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK31" t="n">
         <v>12</v>
       </c>
       <c r="AL31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN31" t="n">
         <v>21</v>
       </c>
-      <c r="AN31" t="n">
-        <v>19</v>
-      </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4962,10 +4968,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
         <v>4.5</v>
@@ -4980,7 +4986,7 @@
         <v>4.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
         <v>8.5</v>
@@ -4989,7 +4995,7 @@
         <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
         <v>1.9</v>
@@ -5001,7 +5007,7 @@
         <v>3.25</v>
       </c>
       <c r="T32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U32" t="n">
         <v>1.4</v>
@@ -5025,7 +5031,7 @@
         <v>9</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
@@ -5037,7 +5043,7 @@
         <v>10</v>
       </c>
       <c r="AF32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
@@ -5058,7 +5064,7 @@
         <v>15</v>
       </c>
       <c r="AM32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="n">
         <v>34</v>
@@ -5103,94 +5109,94 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="L33" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="S33" t="n">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="T33" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="U33" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="V33" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="X33" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="Y33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>10.25</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>9.25</v>
       </c>
       <c r="AK33" t="n">
         <v>12</v>
@@ -5199,13 +5205,13 @@
         <v>8.75</v>
       </c>
       <c r="AM33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN33" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5262,28 +5268,28 @@
         <v>3.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S34" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U34" t="n">
         <v>1.29</v>
@@ -5292,13 +5298,13 @@
         <v>3.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X34" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
         <v>13</v>
@@ -5325,7 +5331,7 @@
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
         <v>101</v>
@@ -5346,15 +5352,15 @@
         <v>21</v>
       </c>
       <c r="AO34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="35">
@@ -5392,16 +5398,16 @@
         <v>1.1</v>
       </c>
       <c r="H35" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J35" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="K35" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="L35" t="n">
         <v>15.5</v>
@@ -5409,61 +5415,61 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P35" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="R35" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="S35" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T35" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="U35" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="V35" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="W35" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="X35" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB35" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AC35" t="n">
         <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF35" t="n">
         <v>17</v>
       </c>
-      <c r="AF35" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG35" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="n">
         <v>250</v>
@@ -5472,10 +5478,10 @@
         <v>101</v>
       </c>
       <c r="AJ35" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK35" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL35" t="n">
         <v>100</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -692,58 +692,58 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W2" t="n">
         <v>2.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y2" t="n">
         <v>7</v>
@@ -755,7 +755,7 @@
         <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -767,10 +767,10 @@
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
         <v>81</v>
@@ -785,7 +785,7 @@
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>151</v>
@@ -794,7 +794,7 @@
         <v>81</v>
       </c>
       <c r="AO2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -1125,22 +1125,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1182,13 +1182,13 @@
         <v>4.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA5" t="n">
         <v>9.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
         <v>17</v>
@@ -1200,10 +1200,10 @@
         <v>6.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>101</v>
@@ -1221,7 +1221,7 @@
         <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
         <v>51</v>
@@ -1230,10 +1230,10 @@
         <v>67</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AR5" t="n">
         <v>4.1</v>
@@ -1274,16 +1274,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
@@ -1298,10 +1298,10 @@
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
         <v>2.88</v>
@@ -1310,10 +1310,10 @@
         <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U6" t="n">
         <v>1.67</v>
@@ -1331,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
@@ -1361,10 +1361,10 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1388,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7">
@@ -1423,28 +1423,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1453,43 +1453,43 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y7" t="n">
         <v>5.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD7" t="n">
         <v>41</v>
@@ -1504,16 +1504,16 @@
         <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="n">
         <v>101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
@@ -1604,10 +1604,10 @@
         <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U8" t="n">
         <v>1.67</v>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1713,22 +1713,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="K9" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1757,25 +1757,25 @@
         <v>2.57</v>
       </c>
       <c r="W9" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA9" t="n">
         <v>8.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
         <v>32</v>
@@ -1784,34 +1784,34 @@
         <v>9.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
         <v>65</v>
       </c>
       <c r="AO9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1850,61 +1850,61 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
@@ -1913,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>21</v>
@@ -1922,7 +1922,7 @@
         <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF10" t="n">
         <v>6</v>
@@ -1934,25 +1934,25 @@
         <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
         <v>29</v>
       </c>
-      <c r="AN10" t="n">
-        <v>26</v>
-      </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP10" t="n">
         <v>1.8</v>
@@ -1995,22 +1995,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
         <v>7.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2019,10 +2019,10 @@
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
         <v>1.8</v>
@@ -2031,16 +2031,16 @@
         <v>2</v>
       </c>
       <c r="S11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V11" t="n">
         <v>3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3.25</v>
       </c>
       <c r="W11" t="n">
         <v>1.91</v>
@@ -2067,10 +2067,10 @@
         <v>26</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
         <v>19</v>
@@ -2144,16 +2144,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
         <v>7.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -2168,22 +2168,22 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.29</v>
       </c>
       <c r="U12" t="n">
         <v>1.4</v>
@@ -2237,10 +2237,10 @@
         <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN12" t="n">
         <v>51</v>
@@ -2293,22 +2293,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="J13" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2317,82 +2317,82 @@
         <v>7.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U13" t="n">
         <v>1.42</v>
       </c>
       <c r="V13" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="X13" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.25</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AC13" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AD13" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AE13" t="n">
         <v>7.2</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI13" t="n">
         <v>1250</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AL13" t="n">
         <v>9</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>11.25</v>
       </c>
       <c r="AN13" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
         <v>37</v>
@@ -2716,16 +2716,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
@@ -2734,13 +2734,13 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
         <v>4.5</v>
@@ -2755,13 +2755,13 @@
         <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W16" t="n">
         <v>1.57</v>
@@ -2770,7 +2770,7 @@
         <v>2.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
         <v>12</v>
@@ -2779,7 +2779,7 @@
         <v>9</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
         <v>15</v>
@@ -2791,22 +2791,22 @@
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
@@ -2822,8 +2822,12 @@
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
+      <c r="AR16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2860,10 +2864,10 @@
         <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
         <v>2.5</v>
@@ -2875,28 +2879,28 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
         <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
         <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U17" t="n">
         <v>1.44</v>
@@ -2905,10 +2909,10 @@
         <v>2.63</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y17" t="n">
         <v>6.5</v>
@@ -2917,7 +2921,7 @@
         <v>8</v>
       </c>
       <c r="AA17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB17" t="n">
         <v>15</v>
@@ -2929,10 +2933,10 @@
         <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -2998,13 +3002,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J18" t="n">
         <v>4.75</v>
@@ -3013,16 +3017,16 @@
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
         <v>3.2</v>
@@ -3034,7 +3038,7 @@
         <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
         <v>1.25</v>
@@ -3052,7 +3056,7 @@
         <v>1.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
@@ -3061,10 +3065,10 @@
         <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="n">
         <v>41</v>
@@ -3088,16 +3092,16 @@
         <v>6.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM18" t="n">
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
@@ -3441,10 +3445,10 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>2.1</v>
@@ -3683,13 +3687,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -3698,7 +3702,7 @@
         <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -3707,34 +3711,34 @@
         <v>15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
@@ -3743,22 +3747,22 @@
         <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG23" t="n">
         <v>12</v>
@@ -3770,7 +3774,7 @@
         <v>126</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -3828,64 +3832,64 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L24" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O24" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R24" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y24" t="n">
         <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
         <v>11</v>
@@ -3897,13 +3901,13 @@
         <v>21</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
@@ -3912,10 +3916,10 @@
         <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>13</v>
@@ -3935,10 +3939,10 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="25">
@@ -3994,7 +3998,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O25" t="n">
         <v>1.1</v>
@@ -4006,7 +4010,7 @@
         <v>1.33</v>
       </c>
       <c r="R25" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S25" t="n">
         <v>1.83</v>
@@ -4147,7 +4151,7 @@
         <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
         <v>3.75</v>
@@ -4255,13 +4259,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
         <v>2.75</v>
@@ -4279,16 +4283,16 @@
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S27" t="n">
         <v>3.4</v>
@@ -4309,7 +4313,7 @@
         <v>2</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="n">
         <v>10</v>
@@ -4342,7 +4346,7 @@
         <v>201</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
         <v>17</v>
@@ -4351,10 +4355,10 @@
         <v>12</v>
       </c>
       <c r="AM27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>34</v>
@@ -4404,13 +4408,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -4425,7 +4429,7 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O28" t="n">
         <v>1.25</v>
@@ -4461,7 +4465,7 @@
         <v>9.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA28" t="n">
         <v>9.5</v>
@@ -4491,7 +4495,7 @@
         <v>151</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK28" t="n">
         <v>15</v>
@@ -4575,10 +4579,10 @@
         <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S29" t="n">
         <v>4</v>
@@ -4710,16 +4714,16 @@
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
@@ -4827,46 +4831,46 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T31" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="U31" t="n">
         <v>1.4</v>
@@ -4881,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
         <v>15</v>
@@ -4896,10 +4900,10 @@
         <v>23</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
         <v>6.5</v>
@@ -4914,22 +4918,22 @@
         <v>151</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>12</v>
       </c>
       <c r="AL31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4968,43 +4972,43 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T32" t="n">
         <v>1.3</v>
@@ -5016,31 +5020,31 @@
         <v>2.75</v>
       </c>
       <c r="W32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA32" t="n">
         <v>9</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF32" t="n">
         <v>7</v>
@@ -5052,22 +5056,22 @@
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AJ32" t="n">
         <v>13</v>
       </c>
       <c r="AK32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN32" t="n">
         <v>41</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>34</v>
       </c>
       <c r="AO32" t="n">
         <v>41</v>
@@ -5109,109 +5113,109 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>2.47</v>
       </c>
       <c r="H33" t="n">
         <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L33" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="Q33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.57</v>
       </c>
-      <c r="R33" t="n">
+      <c r="X33" t="n">
         <v>2.25</v>
       </c>
-      <c r="S33" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X33" t="n">
-        <v>2.37</v>
-      </c>
       <c r="Y33" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA33" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AB33" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AC33" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AD33" t="n">
         <v>24</v>
       </c>
       <c r="AE33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ33" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM33" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AN33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO33" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5250,13 +5254,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>2.75</v>
@@ -5268,28 +5272,28 @@
         <v>3.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
         <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R34" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S34" t="n">
         <v>2.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U34" t="n">
         <v>1.29</v>
@@ -5357,10 +5361,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -5395,30 +5399,30 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H35" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J35" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="K35" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="L35" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P35" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Q35" t="n">
         <v>1.42</v>
@@ -5433,67 +5437,67 @@
         <v>1.62</v>
       </c>
       <c r="U35" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="V35" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="W35" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="X35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z35" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA35" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC35" t="n">
         <v>11.75</v>
       </c>
-      <c r="AB35" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>12</v>
-      </c>
       <c r="AD35" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="n">
         <v>15.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AH35" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI35" t="n">
         <v>101</v>
       </c>
       <c r="AJ35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK35" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL35" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM35" t="n">
         <v>101</v>
       </c>
       <c r="AN35" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AO35" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -695,31 +695,31 @@
         <v>1.25</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
@@ -728,10 +728,10 @@
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.3</v>
@@ -755,7 +755,7 @@
         <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>501</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.14</v>
@@ -1033,16 +1033,16 @@
         <v>6.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="n">
         <v>51</v>
@@ -1066,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1087,10 +1087,10 @@
         <v>1.78</v>
       </c>
       <c r="AR4" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="5">
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.38</v>
@@ -1143,22 +1143,22 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1173,13 +1173,13 @@
         <v>2.25</v>
       </c>
       <c r="W5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="n">
         <v>6.5</v>
@@ -1212,13 +1212,13 @@
         <v>800</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>67</v>
@@ -1230,16 +1230,16 @@
         <v>67</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
@@ -1292,10 +1292,10 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.62</v>
@@ -1304,10 +1304,10 @@
         <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
         <v>6.5</v>
@@ -1385,7 +1385,7 @@
         <v>1.8</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AS6" t="n">
         <v>1.17</v>
@@ -1423,28 +1423,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1471,25 +1471,25 @@
         <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y7" t="n">
         <v>5.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD7" t="n">
         <v>41</v>
@@ -1504,16 +1504,16 @@
         <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI7" t="n">
         <v>101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
@@ -1995,46 +1995,46 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
         <v>6.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U11" t="n">
         <v>1.36</v>
@@ -2058,7 +2058,7 @@
         <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
@@ -2073,7 +2073,7 @@
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>51</v>
@@ -2082,10 +2082,10 @@
         <v>301</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>21</v>
@@ -2100,16 +2100,16 @@
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="12">
@@ -2293,22 +2293,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2329,7 +2329,7 @@
         <v>1.72</v>
       </c>
       <c r="S13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
         <v>1.27</v>
@@ -2338,43 +2338,43 @@
         <v>1.42</v>
       </c>
       <c r="V13" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="W13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
         <v>1.65</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AC13" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="n">
         <v>7.2</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI13" t="n">
         <v>1250</v>
@@ -2383,16 +2383,16 @@
         <v>5.6</v>
       </c>
       <c r="AK13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AL13" t="n">
         <v>9</v>
       </c>
       <c r="AM13" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AN13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>37</v>
@@ -2434,22 +2434,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2458,7 +2458,7 @@
         <v>7.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2473,37 +2473,37 @@
         <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="U14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V14" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="W14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X14" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Y14" t="n">
         <v>7.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AD14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE14" t="n">
         <v>7.1</v>
@@ -2521,22 +2521,22 @@
         <v>700</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2575,34 +2575,34 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="J15" t="n">
-        <v>4.45</v>
+        <v>4.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q15" t="n">
         <v>2.15</v>
@@ -2611,70 +2611,70 @@
         <v>1.65</v>
       </c>
       <c r="S15" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
         <v>1.24</v>
       </c>
       <c r="U15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="W15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AD15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI15" t="n">
         <v>1250</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AK15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN15" t="n">
         <v>17</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>18.5</v>
       </c>
       <c r="AO15" t="n">
         <v>37</v>
@@ -2716,13 +2716,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
         <v>2.63</v>
@@ -2731,7 +2731,7 @@
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2740,40 +2740,40 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.62</v>
       </c>
-      <c r="R16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
         <v>9</v>
@@ -2794,16 +2794,16 @@
         <v>7.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
         <v>19</v>
@@ -2818,15 +2818,15 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="17">
@@ -2861,22 +2861,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2909,22 +2909,22 @@
         <v>2.63</v>
       </c>
       <c r="W17" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA17" t="n">
         <v>8.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>15</v>
@@ -2939,22 +2939,22 @@
         <v>7</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI17" t="n">
         <v>351</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
@@ -2963,7 +2963,7 @@
         <v>41</v>
       </c>
       <c r="AO17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -3002,13 +3002,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J18" t="n">
         <v>4.75</v>
@@ -3017,7 +3017,7 @@
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3056,7 +3056,7 @@
         <v>1.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
@@ -3068,7 +3068,7 @@
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="n">
         <v>41</v>
@@ -3092,16 +3092,16 @@
         <v>6.5</v>
       </c>
       <c r="AK18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL18" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>9</v>
       </c>
       <c r="AM18" t="n">
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
@@ -3445,10 +3445,10 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
         <v>2.1</v>
@@ -3690,19 +3690,19 @@
         <v>2.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
         <v>2.38</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -3717,10 +3717,10 @@
         <v>4.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S23" t="n">
         <v>2.5</v>
@@ -3729,22 +3729,22 @@
         <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
         <v>10</v>
@@ -3759,7 +3759,7 @@
         <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>7.5</v>
@@ -3768,16 +3768,16 @@
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
         <v>9.5</v>
@@ -3789,15 +3789,15 @@
         <v>17</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="24">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J24" t="n">
         <v>3.4</v>
@@ -3886,16 +3886,16 @@
         <v>2.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
         <v>11</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
         <v>21</v>
@@ -3925,7 +3925,7 @@
         <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM24" t="n">
         <v>21</v>
@@ -3934,7 +3934,7 @@
         <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I25" t="n">
         <v>1.8</v>
@@ -3998,13 +3998,13 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q25" t="n">
         <v>1.33</v>
@@ -4013,10 +4013,10 @@
         <v>3.4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="U25" t="n">
         <v>1.2</v>
@@ -4025,10 +4025,10 @@
         <v>4.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X25" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Y25" t="n">
         <v>21</v>
@@ -4058,28 +4058,28 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="n">
         <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>9.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
         <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4289,10 +4289,10 @@
         <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S27" t="n">
         <v>3.4</v>
@@ -4364,16 +4364,16 @@
         <v>34</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="28">
@@ -4408,22 +4408,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
         <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
         <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4432,22 +4432,22 @@
         <v>12</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R28" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U28" t="n">
         <v>1.36</v>
@@ -4456,22 +4456,22 @@
         <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="n">
         <v>13</v>
       </c>
       <c r="AA28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC28" t="n">
         <v>19</v>
@@ -4501,16 +4501,16 @@
         <v>15</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
         <v>21</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
         <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -4591,16 +4591,16 @@
         <v>1.22</v>
       </c>
       <c r="U29" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y29" t="n">
         <v>7.5</v>
@@ -4627,13 +4627,13 @@
         <v>6.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>51</v>
       </c>
       <c r="AI29" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ29" t="n">
         <v>8</v>
@@ -4648,7 +4648,7 @@
         <v>29</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
         <v>34</v>
@@ -4702,7 +4702,7 @@
         <v>2.38</v>
       </c>
       <c r="K30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
@@ -4732,25 +4732,25 @@
         <v>1.22</v>
       </c>
       <c r="U30" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V30" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X30" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
         <v>7</v>
       </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB30" t="n">
         <v>12</v>
@@ -4768,7 +4768,7 @@
         <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>67</v>
@@ -4777,7 +4777,7 @@
         <v>501</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>26</v>
@@ -5257,10 +5257,10 @@
         <v>2.25</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
         <v>2.75</v>
@@ -5275,40 +5275,40 @@
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.53</v>
       </c>
-      <c r="R34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U34" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
         <v>13</v>
@@ -5320,28 +5320,28 @@
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD34" t="n">
         <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
         <v>101</v>
       </c>
       <c r="AJ34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK34" t="n">
         <v>19</v>
@@ -5356,15 +5356,15 @@
         <v>21</v>
       </c>
       <c r="AO34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="35">
@@ -5405,16 +5405,16 @@
         <v>6.7</v>
       </c>
       <c r="I35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J35" t="n">
         <v>1.44</v>
       </c>
       <c r="K35" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="L35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -5425,10 +5425,10 @@
         <v>5.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R35" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="S35" t="n">
         <v>2.02</v>
@@ -5443,22 +5443,22 @@
         <v>4</v>
       </c>
       <c r="W35" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="X35" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="Z35" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC35" t="n">
         <v>11.75</v>
@@ -5476,7 +5476,7 @@
         <v>45</v>
       </c>
       <c r="AH35" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI35" t="n">
         <v>101</v>
@@ -5485,7 +5485,7 @@
         <v>65</v>
       </c>
       <c r="AK35" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL35" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -710,43 +710,43 @@
         <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z2" t="n">
         <v>6</v>
@@ -767,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>26</v>
@@ -779,13 +779,13 @@
         <v>501</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>151</v>
@@ -794,7 +794,7 @@
         <v>81</v>
       </c>
       <c r="AO2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -848,7 +848,7 @@
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -869,16 +869,16 @@
         <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W3" t="n">
         <v>2.2</v>
@@ -911,23 +911,23 @@
         <v>6.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>81</v>
       </c>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>41</v>
@@ -936,10 +936,10 @@
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -979,16 +979,16 @@
         <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
         <v>3.75</v>
@@ -1000,37 +1000,37 @@
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
         <v>12</v>
@@ -1042,13 +1042,13 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD4" t="n">
         <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF4" t="n">
         <v>5.5</v>
@@ -1075,10 +1075,10 @@
         <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="n">
         <v>2.1</v>
@@ -1087,10 +1087,10 @@
         <v>1.78</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>2.38</v>
@@ -1143,10 +1143,10 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1167,10 +1167,10 @@
         <v>1.17</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W5" t="n">
         <v>2.38</v>
@@ -1185,7 +1185,7 @@
         <v>6.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
         <v>12</v>
@@ -1197,7 +1197,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF5" t="n">
         <v>7</v>
@@ -1212,13 +1212,13 @@
         <v>800</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>67</v>
@@ -1230,10 +1230,10 @@
         <v>67</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AR5" t="n">
         <v>4</v>
@@ -1280,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1322,16 +1322,16 @@
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y6" t="n">
         <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
@@ -1349,7 +1349,7 @@
         <v>5.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
@@ -1364,7 +1364,7 @@
         <v>7.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1385,7 +1385,7 @@
         <v>1.8</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>1.17</v>
@@ -1441,10 +1441,10 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1453,22 +1453,22 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U7" t="n">
         <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W7" t="n">
         <v>2.5</v>
@@ -1598,10 +1598,10 @@
         <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
         <v>6.5</v>
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
         <v>7</v>
@@ -2013,10 +2013,10 @@
         <v>6.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2025,10 +2025,10 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
@@ -2073,13 +2073,13 @@
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH11" t="n">
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>
@@ -2100,16 +2100,16 @@
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="12">
@@ -2861,13 +2861,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>2.3</v>
@@ -2885,16 +2885,16 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
         <v>3.75</v>
@@ -2918,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="Z17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA17" t="n">
         <v>8.5</v>
@@ -2951,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
         <v>17</v>
@@ -2963,7 +2963,7 @@
         <v>41</v>
       </c>
       <c r="AO17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -3002,16 +3002,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
         <v>1.83</v>
       </c>
       <c r="J18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
@@ -3020,10 +3020,10 @@
         <v>2.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3056,28 +3056,28 @@
         <v>1.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="n">
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
         <v>17</v>
@@ -3086,7 +3086,7 @@
         <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ18" t="n">
         <v>6.5</v>
@@ -3687,19 +3687,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
         <v>2.88</v>
@@ -3717,10 +3717,10 @@
         <v>4.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S23" t="n">
         <v>2.5</v>
@@ -3729,55 +3729,55 @@
         <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD23" t="n">
         <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="n">
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>9.5</v>
@@ -3794,10 +3794,10 @@
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="24">
@@ -3832,22 +3832,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
         <v>2.4</v>
       </c>
       <c r="L24" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -3880,10 +3880,10 @@
         <v>3.5</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
@@ -3892,16 +3892,16 @@
         <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB24" t="n">
         <v>29</v>
       </c>
       <c r="AC24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD24" t="n">
         <v>21</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -3922,16 +3922,16 @@
         <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>9.5</v>
       </c>
       <c r="AM24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO24" t="n">
         <v>21</v>
@@ -3977,46 +3977,46 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H25" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
         <v>2.63</v>
       </c>
       <c r="L25" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R25" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U25" t="n">
         <v>1.2</v>
@@ -4025,37 +4025,37 @@
         <v>4.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB25" t="n">
         <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD25" t="n">
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>26</v>
@@ -4073,13 +4073,13 @@
         <v>9.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4136,28 +4136,28 @@
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
         <v>1.44</v>
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
         <v>2.1</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -4316,19 +4316,19 @@
         <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC27" t="n">
         <v>19</v>
       </c>
-      <c r="AC27" t="n">
-        <v>17</v>
-      </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
         <v>10</v>
@@ -4337,7 +4337,7 @@
         <v>6.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>51</v>
@@ -4349,7 +4349,7 @@
         <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>12</v>
@@ -4364,16 +4364,16 @@
         <v>34</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="28">
@@ -4429,7 +4429,7 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O28" t="n">
         <v>1.22</v>
@@ -4438,10 +4438,10 @@
         <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S28" t="n">
         <v>2.75</v>
@@ -4573,16 +4573,16 @@
         <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="n">
         <v>4</v>
@@ -4690,28 +4690,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -4720,16 +4720,16 @@
         <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4738,52 +4738,52 @@
         <v>2.63</v>
       </c>
       <c r="W30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y30" t="n">
         <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA30" t="n">
         <v>8.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>67</v>
       </c>
       <c r="AI30" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM30" t="n">
         <v>51</v>
@@ -4792,7 +4792,7 @@
         <v>41</v>
       </c>
       <c r="AO30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -936,10 +936,10 @@
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
         <v>34</v>
@@ -1057,7 +1057,7 @@
         <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI4" t="n">
         <v>501</v>
@@ -1066,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1075,7 +1075,7 @@
         <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
@@ -1125,58 +1125,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="T5" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y5" t="n">
         <v>5</v>
@@ -1188,37 +1188,37 @@
         <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
       </c>
       <c r="AE5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG5" t="n">
         <v>23</v>
       </c>
       <c r="AH5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="n">
         <v>800</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>67</v>
@@ -1227,19 +1227,19 @@
         <v>51</v>
       </c>
       <c r="AO5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AR5" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="6">
@@ -1286,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
         <v>19</v>
@@ -1349,7 +1349,7 @@
         <v>5.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
@@ -1364,7 +1364,7 @@
         <v>7.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1385,10 +1385,10 @@
         <v>1.8</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="7">
@@ -1444,7 +1444,7 @@
         <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1477,7 +1477,7 @@
         <v>1.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="n">
         <v>9</v>
@@ -1492,10 +1492,10 @@
         <v>26</v>
       </c>
       <c r="AD7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF7" t="n">
         <v>5.5</v>
@@ -1598,10 +1598,10 @@
         <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
         <v>6.5</v>
@@ -1995,28 +1995,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K11" t="n">
         <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2043,10 +2043,10 @@
         <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -2073,13 +2073,13 @@
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>
@@ -2091,7 +2091,7 @@
         <v>21</v>
       </c>
       <c r="AM11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
         <v>51</v>
@@ -2174,10 +2174,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
         <v>3.4</v>
@@ -4289,10 +4289,10 @@
         <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S27" t="n">
         <v>3.4</v>
@@ -4714,16 +4714,16 @@
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -1274,22 +1274,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1322,25 +1322,25 @@
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
         <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
@@ -1352,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
         <v>101</v>
@@ -1361,10 +1361,10 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1568,19 +1568,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L8" t="n">
         <v>6</v>
@@ -1649,13 +1649,13 @@
         <v>26</v>
       </c>
       <c r="AH8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI8" t="n">
         <v>101</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
@@ -2013,16 +2013,16 @@
         <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
         <v>1.8</v>
@@ -2031,10 +2031,10 @@
         <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U11" t="n">
         <v>1.36</v>
@@ -2058,7 +2058,7 @@
         <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
@@ -2079,7 +2079,7 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>
@@ -2094,7 +2094,7 @@
         <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO11" t="n">
         <v>51</v>
@@ -2174,16 +2174,16 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U12" t="n">
         <v>1.4</v>
@@ -2249,16 +2249,16 @@
         <v>51</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="13">
@@ -2861,10 +2861,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
         <v>5</v>
@@ -2909,16 +2909,16 @@
         <v>2.63</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y17" t="n">
         <v>6</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA17" t="n">
         <v>8.5</v>
@@ -2936,10 +2936,10 @@
         <v>9</v>
       </c>
       <c r="AF17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>67</v>
@@ -2951,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>17</v>
@@ -2963,7 +2963,7 @@
         <v>41</v>
       </c>
       <c r="AO17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -4118,16 +4118,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>2.05</v>
@@ -4175,46 +4175,46 @@
         <v>7</v>
       </c>
       <c r="Z26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA26" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA26" t="n">
-        <v>9</v>
-      </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
         <v>19</v>
       </c>
       <c r="AD26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF26" t="n">
         <v>6.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ26" t="n">
         <v>9</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>12</v>
       </c>
       <c r="AM26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN26" t="n">
         <v>29</v>
@@ -4259,31 +4259,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H27" t="n">
         <v>3.3</v>
       </c>
       <c r="I27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
         <v>3.5</v>
@@ -4298,7 +4298,7 @@
         <v>3.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U27" t="n">
         <v>1.4</v>
@@ -4313,19 +4313,19 @@
         <v>2</v>
       </c>
       <c r="Y27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC27" t="n">
         <v>21</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>19</v>
       </c>
       <c r="AD27" t="n">
         <v>29</v>
@@ -4340,28 +4340,28 @@
         <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI27" t="n">
         <v>201</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK27" t="n">
         <v>15</v>
       </c>
       <c r="AL27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP27" t="n">
         <v>1.48</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-24.xlsx
@@ -2159,7 +2159,7 @@
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2174,10 +2174,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
         <v>3.25</v>
@@ -2192,10 +2192,10 @@
         <v>2.75</v>
       </c>
       <c r="W12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y12" t="n">
         <v>6</v>
@@ -2231,7 +2231,7 @@
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
@@ -2240,7 +2240,7 @@
         <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="n">
         <v>51</v>
@@ -2249,16 +2249,16 @@
         <v>51</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AQ12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR12" t="n">
         <v>2.7</v>
       </c>
-      <c r="AR12" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AS12" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="13">
